--- a/data/Simulations/HR1_2/Location1/Location1_2030.xlsx
+++ b/data/Simulations/HR1_2/Location1/Location1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1_2\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4812A7F4-C9C3-4F02-AB33-EFF6A9EF8838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE571211-BB74-4BFF-8384-F96E0A498DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -3980,1708 +3980,6 @@
             <v>9.5500000000000007</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="B3">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C3">
-            <v>18.79</v>
-          </cell>
-          <cell r="D3">
-            <v>22.38</v>
-          </cell>
-          <cell r="E3">
-            <v>24.35</v>
-          </cell>
-          <cell r="F3">
-            <v>25.01</v>
-          </cell>
-          <cell r="G3">
-            <v>20.48</v>
-          </cell>
-          <cell r="H3">
-            <v>22.13</v>
-          </cell>
-          <cell r="I3">
-            <v>12.36</v>
-          </cell>
-          <cell r="J3">
-            <v>5.59</v>
-          </cell>
-          <cell r="K3">
-            <v>4.01</v>
-          </cell>
-          <cell r="L3">
-            <v>3.49</v>
-          </cell>
-          <cell r="M3">
-            <v>5.14</v>
-          </cell>
-          <cell r="N3">
-            <v>3.99</v>
-          </cell>
-          <cell r="O3">
-            <v>4.29</v>
-          </cell>
-          <cell r="P3">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q3">
-            <v>4.49</v>
-          </cell>
-          <cell r="R3">
-            <v>3.99</v>
-          </cell>
-          <cell r="S3">
-            <v>3.99</v>
-          </cell>
-          <cell r="T3">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U3">
-            <v>5.39</v>
-          </cell>
-          <cell r="V3">
-            <v>3.99</v>
-          </cell>
-          <cell r="W3">
-            <v>3.99</v>
-          </cell>
-          <cell r="X3">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y3">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C4">
-            <v>18.79</v>
-          </cell>
-          <cell r="D4">
-            <v>22.38</v>
-          </cell>
-          <cell r="E4">
-            <v>24.35</v>
-          </cell>
-          <cell r="F4">
-            <v>25.01</v>
-          </cell>
-          <cell r="G4">
-            <v>20.48</v>
-          </cell>
-          <cell r="H4">
-            <v>22.13</v>
-          </cell>
-          <cell r="I4">
-            <v>12.36</v>
-          </cell>
-          <cell r="J4">
-            <v>5.59</v>
-          </cell>
-          <cell r="K4">
-            <v>4.01</v>
-          </cell>
-          <cell r="L4">
-            <v>3.49</v>
-          </cell>
-          <cell r="M4">
-            <v>5.14</v>
-          </cell>
-          <cell r="N4">
-            <v>3.99</v>
-          </cell>
-          <cell r="O4">
-            <v>4.29</v>
-          </cell>
-          <cell r="P4">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q4">
-            <v>4.49</v>
-          </cell>
-          <cell r="R4">
-            <v>3.99</v>
-          </cell>
-          <cell r="S4">
-            <v>3.99</v>
-          </cell>
-          <cell r="T4">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U4">
-            <v>5.39</v>
-          </cell>
-          <cell r="V4">
-            <v>3.99</v>
-          </cell>
-          <cell r="W4">
-            <v>3.99</v>
-          </cell>
-          <cell r="X4">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y4">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C5">
-            <v>18.79</v>
-          </cell>
-          <cell r="D5">
-            <v>22.38</v>
-          </cell>
-          <cell r="E5">
-            <v>24.35</v>
-          </cell>
-          <cell r="F5">
-            <v>25.01</v>
-          </cell>
-          <cell r="G5">
-            <v>20.48</v>
-          </cell>
-          <cell r="H5">
-            <v>22.13</v>
-          </cell>
-          <cell r="I5">
-            <v>12.36</v>
-          </cell>
-          <cell r="J5">
-            <v>5.59</v>
-          </cell>
-          <cell r="K5">
-            <v>4.01</v>
-          </cell>
-          <cell r="L5">
-            <v>3.49</v>
-          </cell>
-          <cell r="M5">
-            <v>5.14</v>
-          </cell>
-          <cell r="N5">
-            <v>3.99</v>
-          </cell>
-          <cell r="O5">
-            <v>4.29</v>
-          </cell>
-          <cell r="P5">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q5">
-            <v>4.49</v>
-          </cell>
-          <cell r="R5">
-            <v>3.99</v>
-          </cell>
-          <cell r="S5">
-            <v>3.99</v>
-          </cell>
-          <cell r="T5">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U5">
-            <v>5.39</v>
-          </cell>
-          <cell r="V5">
-            <v>3.99</v>
-          </cell>
-          <cell r="W5">
-            <v>3.99</v>
-          </cell>
-          <cell r="X5">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y5">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C6">
-            <v>18.79</v>
-          </cell>
-          <cell r="D6">
-            <v>22.38</v>
-          </cell>
-          <cell r="E6">
-            <v>24.35</v>
-          </cell>
-          <cell r="F6">
-            <v>25.01</v>
-          </cell>
-          <cell r="G6">
-            <v>20.48</v>
-          </cell>
-          <cell r="H6">
-            <v>22.13</v>
-          </cell>
-          <cell r="I6">
-            <v>12.36</v>
-          </cell>
-          <cell r="J6">
-            <v>5.59</v>
-          </cell>
-          <cell r="K6">
-            <v>4.01</v>
-          </cell>
-          <cell r="L6">
-            <v>3.49</v>
-          </cell>
-          <cell r="M6">
-            <v>5.14</v>
-          </cell>
-          <cell r="N6">
-            <v>3.99</v>
-          </cell>
-          <cell r="O6">
-            <v>4.29</v>
-          </cell>
-          <cell r="P6">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q6">
-            <v>4.49</v>
-          </cell>
-          <cell r="R6">
-            <v>3.99</v>
-          </cell>
-          <cell r="S6">
-            <v>3.99</v>
-          </cell>
-          <cell r="T6">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U6">
-            <v>5.39</v>
-          </cell>
-          <cell r="V6">
-            <v>3.99</v>
-          </cell>
-          <cell r="W6">
-            <v>3.99</v>
-          </cell>
-          <cell r="X6">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y6">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C7">
-            <v>18.79</v>
-          </cell>
-          <cell r="D7">
-            <v>22.38</v>
-          </cell>
-          <cell r="E7">
-            <v>24.35</v>
-          </cell>
-          <cell r="F7">
-            <v>25.01</v>
-          </cell>
-          <cell r="G7">
-            <v>20.48</v>
-          </cell>
-          <cell r="H7">
-            <v>22.13</v>
-          </cell>
-          <cell r="I7">
-            <v>12.36</v>
-          </cell>
-          <cell r="J7">
-            <v>5.59</v>
-          </cell>
-          <cell r="K7">
-            <v>4.01</v>
-          </cell>
-          <cell r="L7">
-            <v>3.49</v>
-          </cell>
-          <cell r="M7">
-            <v>5.14</v>
-          </cell>
-          <cell r="N7">
-            <v>3.99</v>
-          </cell>
-          <cell r="O7">
-            <v>4.29</v>
-          </cell>
-          <cell r="P7">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q7">
-            <v>4.49</v>
-          </cell>
-          <cell r="R7">
-            <v>3.99</v>
-          </cell>
-          <cell r="S7">
-            <v>3.99</v>
-          </cell>
-          <cell r="T7">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U7">
-            <v>5.39</v>
-          </cell>
-          <cell r="V7">
-            <v>3.99</v>
-          </cell>
-          <cell r="W7">
-            <v>3.99</v>
-          </cell>
-          <cell r="X7">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y7">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C8">
-            <v>18.79</v>
-          </cell>
-          <cell r="D8">
-            <v>22.38</v>
-          </cell>
-          <cell r="E8">
-            <v>24.35</v>
-          </cell>
-          <cell r="F8">
-            <v>25.01</v>
-          </cell>
-          <cell r="G8">
-            <v>20.48</v>
-          </cell>
-          <cell r="H8">
-            <v>22.13</v>
-          </cell>
-          <cell r="I8">
-            <v>12.36</v>
-          </cell>
-          <cell r="J8">
-            <v>5.59</v>
-          </cell>
-          <cell r="K8">
-            <v>4.01</v>
-          </cell>
-          <cell r="L8">
-            <v>3.49</v>
-          </cell>
-          <cell r="M8">
-            <v>5.14</v>
-          </cell>
-          <cell r="N8">
-            <v>3.99</v>
-          </cell>
-          <cell r="O8">
-            <v>4.29</v>
-          </cell>
-          <cell r="P8">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q8">
-            <v>4.49</v>
-          </cell>
-          <cell r="R8">
-            <v>3.99</v>
-          </cell>
-          <cell r="S8">
-            <v>3.99</v>
-          </cell>
-          <cell r="T8">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U8">
-            <v>5.39</v>
-          </cell>
-          <cell r="V8">
-            <v>3.99</v>
-          </cell>
-          <cell r="W8">
-            <v>3.99</v>
-          </cell>
-          <cell r="X8">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y8">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C9">
-            <v>18.79</v>
-          </cell>
-          <cell r="D9">
-            <v>22.38</v>
-          </cell>
-          <cell r="E9">
-            <v>24.35</v>
-          </cell>
-          <cell r="F9">
-            <v>25.01</v>
-          </cell>
-          <cell r="G9">
-            <v>20.48</v>
-          </cell>
-          <cell r="H9">
-            <v>22.13</v>
-          </cell>
-          <cell r="I9">
-            <v>12.36</v>
-          </cell>
-          <cell r="J9">
-            <v>5.59</v>
-          </cell>
-          <cell r="K9">
-            <v>4.01</v>
-          </cell>
-          <cell r="L9">
-            <v>3.49</v>
-          </cell>
-          <cell r="M9">
-            <v>5.14</v>
-          </cell>
-          <cell r="N9">
-            <v>3.99</v>
-          </cell>
-          <cell r="O9">
-            <v>4.29</v>
-          </cell>
-          <cell r="P9">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q9">
-            <v>4.49</v>
-          </cell>
-          <cell r="R9">
-            <v>3.99</v>
-          </cell>
-          <cell r="S9">
-            <v>3.99</v>
-          </cell>
-          <cell r="T9">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U9">
-            <v>5.39</v>
-          </cell>
-          <cell r="V9">
-            <v>3.99</v>
-          </cell>
-          <cell r="W9">
-            <v>3.99</v>
-          </cell>
-          <cell r="X9">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y9">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C10">
-            <v>18.79</v>
-          </cell>
-          <cell r="D10">
-            <v>22.38</v>
-          </cell>
-          <cell r="E10">
-            <v>24.35</v>
-          </cell>
-          <cell r="F10">
-            <v>25.01</v>
-          </cell>
-          <cell r="G10">
-            <v>20.48</v>
-          </cell>
-          <cell r="H10">
-            <v>22.13</v>
-          </cell>
-          <cell r="I10">
-            <v>12.36</v>
-          </cell>
-          <cell r="J10">
-            <v>5.59</v>
-          </cell>
-          <cell r="K10">
-            <v>4.01</v>
-          </cell>
-          <cell r="L10">
-            <v>3.49</v>
-          </cell>
-          <cell r="M10">
-            <v>5.14</v>
-          </cell>
-          <cell r="N10">
-            <v>3.99</v>
-          </cell>
-          <cell r="O10">
-            <v>4.29</v>
-          </cell>
-          <cell r="P10">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q10">
-            <v>4.49</v>
-          </cell>
-          <cell r="R10">
-            <v>3.99</v>
-          </cell>
-          <cell r="S10">
-            <v>3.99</v>
-          </cell>
-          <cell r="T10">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U10">
-            <v>5.39</v>
-          </cell>
-          <cell r="V10">
-            <v>3.99</v>
-          </cell>
-          <cell r="W10">
-            <v>3.99</v>
-          </cell>
-          <cell r="X10">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y10">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C11">
-            <v>18.79</v>
-          </cell>
-          <cell r="D11">
-            <v>22.38</v>
-          </cell>
-          <cell r="E11">
-            <v>24.35</v>
-          </cell>
-          <cell r="F11">
-            <v>25.01</v>
-          </cell>
-          <cell r="G11">
-            <v>20.48</v>
-          </cell>
-          <cell r="H11">
-            <v>22.13</v>
-          </cell>
-          <cell r="I11">
-            <v>12.36</v>
-          </cell>
-          <cell r="J11">
-            <v>5.59</v>
-          </cell>
-          <cell r="K11">
-            <v>4.01</v>
-          </cell>
-          <cell r="L11">
-            <v>3.49</v>
-          </cell>
-          <cell r="M11">
-            <v>5.14</v>
-          </cell>
-          <cell r="N11">
-            <v>3.99</v>
-          </cell>
-          <cell r="O11">
-            <v>4.29</v>
-          </cell>
-          <cell r="P11">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q11">
-            <v>4.49</v>
-          </cell>
-          <cell r="R11">
-            <v>3.99</v>
-          </cell>
-          <cell r="S11">
-            <v>3.99</v>
-          </cell>
-          <cell r="T11">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U11">
-            <v>5.39</v>
-          </cell>
-          <cell r="V11">
-            <v>3.99</v>
-          </cell>
-          <cell r="W11">
-            <v>3.99</v>
-          </cell>
-          <cell r="X11">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y11">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C12">
-            <v>18.79</v>
-          </cell>
-          <cell r="D12">
-            <v>22.38</v>
-          </cell>
-          <cell r="E12">
-            <v>24.35</v>
-          </cell>
-          <cell r="F12">
-            <v>25.01</v>
-          </cell>
-          <cell r="G12">
-            <v>20.48</v>
-          </cell>
-          <cell r="H12">
-            <v>22.13</v>
-          </cell>
-          <cell r="I12">
-            <v>12.36</v>
-          </cell>
-          <cell r="J12">
-            <v>5.59</v>
-          </cell>
-          <cell r="K12">
-            <v>4.01</v>
-          </cell>
-          <cell r="L12">
-            <v>3.49</v>
-          </cell>
-          <cell r="M12">
-            <v>5.14</v>
-          </cell>
-          <cell r="N12">
-            <v>3.99</v>
-          </cell>
-          <cell r="O12">
-            <v>4.29</v>
-          </cell>
-          <cell r="P12">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q12">
-            <v>4.49</v>
-          </cell>
-          <cell r="R12">
-            <v>3.99</v>
-          </cell>
-          <cell r="S12">
-            <v>3.99</v>
-          </cell>
-          <cell r="T12">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U12">
-            <v>5.39</v>
-          </cell>
-          <cell r="V12">
-            <v>3.99</v>
-          </cell>
-          <cell r="W12">
-            <v>3.99</v>
-          </cell>
-          <cell r="X12">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y12">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C13">
-            <v>18.79</v>
-          </cell>
-          <cell r="D13">
-            <v>22.38</v>
-          </cell>
-          <cell r="E13">
-            <v>24.35</v>
-          </cell>
-          <cell r="F13">
-            <v>25.01</v>
-          </cell>
-          <cell r="G13">
-            <v>20.48</v>
-          </cell>
-          <cell r="H13">
-            <v>22.13</v>
-          </cell>
-          <cell r="I13">
-            <v>12.36</v>
-          </cell>
-          <cell r="J13">
-            <v>5.59</v>
-          </cell>
-          <cell r="K13">
-            <v>4.01</v>
-          </cell>
-          <cell r="L13">
-            <v>3.49</v>
-          </cell>
-          <cell r="M13">
-            <v>5.14</v>
-          </cell>
-          <cell r="N13">
-            <v>3.99</v>
-          </cell>
-          <cell r="O13">
-            <v>4.29</v>
-          </cell>
-          <cell r="P13">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q13">
-            <v>4.49</v>
-          </cell>
-          <cell r="R13">
-            <v>3.99</v>
-          </cell>
-          <cell r="S13">
-            <v>3.99</v>
-          </cell>
-          <cell r="T13">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U13">
-            <v>5.39</v>
-          </cell>
-          <cell r="V13">
-            <v>3.99</v>
-          </cell>
-          <cell r="W13">
-            <v>3.99</v>
-          </cell>
-          <cell r="X13">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y13">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C14">
-            <v>18.79</v>
-          </cell>
-          <cell r="D14">
-            <v>22.38</v>
-          </cell>
-          <cell r="E14">
-            <v>24.35</v>
-          </cell>
-          <cell r="F14">
-            <v>25.01</v>
-          </cell>
-          <cell r="G14">
-            <v>20.48</v>
-          </cell>
-          <cell r="H14">
-            <v>22.13</v>
-          </cell>
-          <cell r="I14">
-            <v>12.36</v>
-          </cell>
-          <cell r="J14">
-            <v>5.59</v>
-          </cell>
-          <cell r="K14">
-            <v>4.01</v>
-          </cell>
-          <cell r="L14">
-            <v>3.49</v>
-          </cell>
-          <cell r="M14">
-            <v>5.14</v>
-          </cell>
-          <cell r="N14">
-            <v>3.99</v>
-          </cell>
-          <cell r="O14">
-            <v>4.29</v>
-          </cell>
-          <cell r="P14">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q14">
-            <v>4.49</v>
-          </cell>
-          <cell r="R14">
-            <v>3.99</v>
-          </cell>
-          <cell r="S14">
-            <v>3.99</v>
-          </cell>
-          <cell r="T14">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U14">
-            <v>5.39</v>
-          </cell>
-          <cell r="V14">
-            <v>3.99</v>
-          </cell>
-          <cell r="W14">
-            <v>3.99</v>
-          </cell>
-          <cell r="X14">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y14">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C15">
-            <v>18.79</v>
-          </cell>
-          <cell r="D15">
-            <v>22.38</v>
-          </cell>
-          <cell r="E15">
-            <v>24.35</v>
-          </cell>
-          <cell r="F15">
-            <v>25.01</v>
-          </cell>
-          <cell r="G15">
-            <v>20.48</v>
-          </cell>
-          <cell r="H15">
-            <v>22.13</v>
-          </cell>
-          <cell r="I15">
-            <v>12.36</v>
-          </cell>
-          <cell r="J15">
-            <v>5.59</v>
-          </cell>
-          <cell r="K15">
-            <v>4.01</v>
-          </cell>
-          <cell r="L15">
-            <v>3.49</v>
-          </cell>
-          <cell r="M15">
-            <v>5.14</v>
-          </cell>
-          <cell r="N15">
-            <v>3.99</v>
-          </cell>
-          <cell r="O15">
-            <v>4.29</v>
-          </cell>
-          <cell r="P15">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q15">
-            <v>4.49</v>
-          </cell>
-          <cell r="R15">
-            <v>3.99</v>
-          </cell>
-          <cell r="S15">
-            <v>3.99</v>
-          </cell>
-          <cell r="T15">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U15">
-            <v>5.39</v>
-          </cell>
-          <cell r="V15">
-            <v>3.99</v>
-          </cell>
-          <cell r="W15">
-            <v>3.99</v>
-          </cell>
-          <cell r="X15">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y15">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C16">
-            <v>18.79</v>
-          </cell>
-          <cell r="D16">
-            <v>22.38</v>
-          </cell>
-          <cell r="E16">
-            <v>24.35</v>
-          </cell>
-          <cell r="F16">
-            <v>25.01</v>
-          </cell>
-          <cell r="G16">
-            <v>20.48</v>
-          </cell>
-          <cell r="H16">
-            <v>22.13</v>
-          </cell>
-          <cell r="I16">
-            <v>12.36</v>
-          </cell>
-          <cell r="J16">
-            <v>5.59</v>
-          </cell>
-          <cell r="K16">
-            <v>4.01</v>
-          </cell>
-          <cell r="L16">
-            <v>3.49</v>
-          </cell>
-          <cell r="M16">
-            <v>5.14</v>
-          </cell>
-          <cell r="N16">
-            <v>3.99</v>
-          </cell>
-          <cell r="O16">
-            <v>4.29</v>
-          </cell>
-          <cell r="P16">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q16">
-            <v>4.49</v>
-          </cell>
-          <cell r="R16">
-            <v>3.99</v>
-          </cell>
-          <cell r="S16">
-            <v>3.99</v>
-          </cell>
-          <cell r="T16">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U16">
-            <v>5.39</v>
-          </cell>
-          <cell r="V16">
-            <v>3.99</v>
-          </cell>
-          <cell r="W16">
-            <v>3.99</v>
-          </cell>
-          <cell r="X16">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y16">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C17">
-            <v>18.79</v>
-          </cell>
-          <cell r="D17">
-            <v>22.38</v>
-          </cell>
-          <cell r="E17">
-            <v>24.35</v>
-          </cell>
-          <cell r="F17">
-            <v>25.01</v>
-          </cell>
-          <cell r="G17">
-            <v>20.48</v>
-          </cell>
-          <cell r="H17">
-            <v>22.13</v>
-          </cell>
-          <cell r="I17">
-            <v>12.36</v>
-          </cell>
-          <cell r="J17">
-            <v>5.59</v>
-          </cell>
-          <cell r="K17">
-            <v>4.01</v>
-          </cell>
-          <cell r="L17">
-            <v>3.49</v>
-          </cell>
-          <cell r="M17">
-            <v>5.14</v>
-          </cell>
-          <cell r="N17">
-            <v>3.99</v>
-          </cell>
-          <cell r="O17">
-            <v>4.29</v>
-          </cell>
-          <cell r="P17">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q17">
-            <v>4.49</v>
-          </cell>
-          <cell r="R17">
-            <v>3.99</v>
-          </cell>
-          <cell r="S17">
-            <v>3.99</v>
-          </cell>
-          <cell r="T17">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U17">
-            <v>5.39</v>
-          </cell>
-          <cell r="V17">
-            <v>3.99</v>
-          </cell>
-          <cell r="W17">
-            <v>3.99</v>
-          </cell>
-          <cell r="X17">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y17">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C18">
-            <v>18.79</v>
-          </cell>
-          <cell r="D18">
-            <v>22.38</v>
-          </cell>
-          <cell r="E18">
-            <v>24.35</v>
-          </cell>
-          <cell r="F18">
-            <v>25.01</v>
-          </cell>
-          <cell r="G18">
-            <v>20.48</v>
-          </cell>
-          <cell r="H18">
-            <v>22.13</v>
-          </cell>
-          <cell r="I18">
-            <v>12.36</v>
-          </cell>
-          <cell r="J18">
-            <v>5.59</v>
-          </cell>
-          <cell r="K18">
-            <v>4.01</v>
-          </cell>
-          <cell r="L18">
-            <v>3.49</v>
-          </cell>
-          <cell r="M18">
-            <v>5.14</v>
-          </cell>
-          <cell r="N18">
-            <v>3.99</v>
-          </cell>
-          <cell r="O18">
-            <v>4.29</v>
-          </cell>
-          <cell r="P18">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q18">
-            <v>4.49</v>
-          </cell>
-          <cell r="R18">
-            <v>3.99</v>
-          </cell>
-          <cell r="S18">
-            <v>3.99</v>
-          </cell>
-          <cell r="T18">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U18">
-            <v>5.39</v>
-          </cell>
-          <cell r="V18">
-            <v>3.99</v>
-          </cell>
-          <cell r="W18">
-            <v>3.99</v>
-          </cell>
-          <cell r="X18">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y18">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C19">
-            <v>18.79</v>
-          </cell>
-          <cell r="D19">
-            <v>22.38</v>
-          </cell>
-          <cell r="E19">
-            <v>24.35</v>
-          </cell>
-          <cell r="F19">
-            <v>25.01</v>
-          </cell>
-          <cell r="G19">
-            <v>20.48</v>
-          </cell>
-          <cell r="H19">
-            <v>22.13</v>
-          </cell>
-          <cell r="I19">
-            <v>12.36</v>
-          </cell>
-          <cell r="J19">
-            <v>5.59</v>
-          </cell>
-          <cell r="K19">
-            <v>4.01</v>
-          </cell>
-          <cell r="L19">
-            <v>3.49</v>
-          </cell>
-          <cell r="M19">
-            <v>5.14</v>
-          </cell>
-          <cell r="N19">
-            <v>3.99</v>
-          </cell>
-          <cell r="O19">
-            <v>4.29</v>
-          </cell>
-          <cell r="P19">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q19">
-            <v>4.49</v>
-          </cell>
-          <cell r="R19">
-            <v>3.99</v>
-          </cell>
-          <cell r="S19">
-            <v>3.99</v>
-          </cell>
-          <cell r="T19">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U19">
-            <v>5.39</v>
-          </cell>
-          <cell r="V19">
-            <v>3.99</v>
-          </cell>
-          <cell r="W19">
-            <v>3.99</v>
-          </cell>
-          <cell r="X19">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y19">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C20">
-            <v>18.79</v>
-          </cell>
-          <cell r="D20">
-            <v>22.38</v>
-          </cell>
-          <cell r="E20">
-            <v>24.35</v>
-          </cell>
-          <cell r="F20">
-            <v>25.01</v>
-          </cell>
-          <cell r="G20">
-            <v>20.48</v>
-          </cell>
-          <cell r="H20">
-            <v>22.13</v>
-          </cell>
-          <cell r="I20">
-            <v>12.36</v>
-          </cell>
-          <cell r="J20">
-            <v>5.59</v>
-          </cell>
-          <cell r="K20">
-            <v>4.01</v>
-          </cell>
-          <cell r="L20">
-            <v>3.49</v>
-          </cell>
-          <cell r="M20">
-            <v>5.14</v>
-          </cell>
-          <cell r="N20">
-            <v>3.99</v>
-          </cell>
-          <cell r="O20">
-            <v>4.29</v>
-          </cell>
-          <cell r="P20">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q20">
-            <v>4.49</v>
-          </cell>
-          <cell r="R20">
-            <v>3.99</v>
-          </cell>
-          <cell r="S20">
-            <v>3.99</v>
-          </cell>
-          <cell r="T20">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U20">
-            <v>5.39</v>
-          </cell>
-          <cell r="V20">
-            <v>3.99</v>
-          </cell>
-          <cell r="W20">
-            <v>3.99</v>
-          </cell>
-          <cell r="X20">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y20">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C21">
-            <v>18.79</v>
-          </cell>
-          <cell r="D21">
-            <v>22.38</v>
-          </cell>
-          <cell r="E21">
-            <v>24.35</v>
-          </cell>
-          <cell r="F21">
-            <v>25.01</v>
-          </cell>
-          <cell r="G21">
-            <v>20.48</v>
-          </cell>
-          <cell r="H21">
-            <v>22.13</v>
-          </cell>
-          <cell r="I21">
-            <v>12.36</v>
-          </cell>
-          <cell r="J21">
-            <v>5.59</v>
-          </cell>
-          <cell r="K21">
-            <v>4.01</v>
-          </cell>
-          <cell r="L21">
-            <v>3.49</v>
-          </cell>
-          <cell r="M21">
-            <v>5.14</v>
-          </cell>
-          <cell r="N21">
-            <v>3.99</v>
-          </cell>
-          <cell r="O21">
-            <v>4.29</v>
-          </cell>
-          <cell r="P21">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q21">
-            <v>4.49</v>
-          </cell>
-          <cell r="R21">
-            <v>3.99</v>
-          </cell>
-          <cell r="S21">
-            <v>3.99</v>
-          </cell>
-          <cell r="T21">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U21">
-            <v>5.39</v>
-          </cell>
-          <cell r="V21">
-            <v>3.99</v>
-          </cell>
-          <cell r="W21">
-            <v>3.99</v>
-          </cell>
-          <cell r="X21">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y21">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C22">
-            <v>18.79</v>
-          </cell>
-          <cell r="D22">
-            <v>22.38</v>
-          </cell>
-          <cell r="E22">
-            <v>24.35</v>
-          </cell>
-          <cell r="F22">
-            <v>25.01</v>
-          </cell>
-          <cell r="G22">
-            <v>20.48</v>
-          </cell>
-          <cell r="H22">
-            <v>22.13</v>
-          </cell>
-          <cell r="I22">
-            <v>12.36</v>
-          </cell>
-          <cell r="J22">
-            <v>5.59</v>
-          </cell>
-          <cell r="K22">
-            <v>4.01</v>
-          </cell>
-          <cell r="L22">
-            <v>3.49</v>
-          </cell>
-          <cell r="M22">
-            <v>5.14</v>
-          </cell>
-          <cell r="N22">
-            <v>3.99</v>
-          </cell>
-          <cell r="O22">
-            <v>4.29</v>
-          </cell>
-          <cell r="P22">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q22">
-            <v>4.49</v>
-          </cell>
-          <cell r="R22">
-            <v>3.99</v>
-          </cell>
-          <cell r="S22">
-            <v>3.99</v>
-          </cell>
-          <cell r="T22">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U22">
-            <v>5.39</v>
-          </cell>
-          <cell r="V22">
-            <v>3.99</v>
-          </cell>
-          <cell r="W22">
-            <v>3.99</v>
-          </cell>
-          <cell r="X22">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y22">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C23">
-            <v>18.79</v>
-          </cell>
-          <cell r="D23">
-            <v>22.38</v>
-          </cell>
-          <cell r="E23">
-            <v>24.35</v>
-          </cell>
-          <cell r="F23">
-            <v>25.01</v>
-          </cell>
-          <cell r="G23">
-            <v>20.48</v>
-          </cell>
-          <cell r="H23">
-            <v>22.13</v>
-          </cell>
-          <cell r="I23">
-            <v>12.36</v>
-          </cell>
-          <cell r="J23">
-            <v>5.59</v>
-          </cell>
-          <cell r="K23">
-            <v>4.01</v>
-          </cell>
-          <cell r="L23">
-            <v>3.49</v>
-          </cell>
-          <cell r="M23">
-            <v>5.14</v>
-          </cell>
-          <cell r="N23">
-            <v>3.99</v>
-          </cell>
-          <cell r="O23">
-            <v>4.29</v>
-          </cell>
-          <cell r="P23">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q23">
-            <v>4.49</v>
-          </cell>
-          <cell r="R23">
-            <v>3.99</v>
-          </cell>
-          <cell r="S23">
-            <v>3.99</v>
-          </cell>
-          <cell r="T23">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U23">
-            <v>5.39</v>
-          </cell>
-          <cell r="V23">
-            <v>3.99</v>
-          </cell>
-          <cell r="W23">
-            <v>3.99</v>
-          </cell>
-          <cell r="X23">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y23">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C24">
-            <v>18.79</v>
-          </cell>
-          <cell r="D24">
-            <v>22.38</v>
-          </cell>
-          <cell r="E24">
-            <v>24.35</v>
-          </cell>
-          <cell r="F24">
-            <v>25.01</v>
-          </cell>
-          <cell r="G24">
-            <v>20.48</v>
-          </cell>
-          <cell r="H24">
-            <v>22.13</v>
-          </cell>
-          <cell r="I24">
-            <v>12.36</v>
-          </cell>
-          <cell r="J24">
-            <v>5.59</v>
-          </cell>
-          <cell r="K24">
-            <v>4.01</v>
-          </cell>
-          <cell r="L24">
-            <v>3.49</v>
-          </cell>
-          <cell r="M24">
-            <v>5.14</v>
-          </cell>
-          <cell r="N24">
-            <v>3.99</v>
-          </cell>
-          <cell r="O24">
-            <v>4.29</v>
-          </cell>
-          <cell r="P24">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q24">
-            <v>4.49</v>
-          </cell>
-          <cell r="R24">
-            <v>3.99</v>
-          </cell>
-          <cell r="S24">
-            <v>3.99</v>
-          </cell>
-          <cell r="T24">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U24">
-            <v>5.39</v>
-          </cell>
-          <cell r="V24">
-            <v>3.99</v>
-          </cell>
-          <cell r="W24">
-            <v>3.99</v>
-          </cell>
-          <cell r="X24">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y24">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>18.309999999999999</v>
-          </cell>
-          <cell r="C25">
-            <v>18.79</v>
-          </cell>
-          <cell r="D25">
-            <v>22.38</v>
-          </cell>
-          <cell r="E25">
-            <v>24.35</v>
-          </cell>
-          <cell r="F25">
-            <v>25.01</v>
-          </cell>
-          <cell r="G25">
-            <v>20.48</v>
-          </cell>
-          <cell r="H25">
-            <v>22.13</v>
-          </cell>
-          <cell r="I25">
-            <v>12.36</v>
-          </cell>
-          <cell r="J25">
-            <v>5.59</v>
-          </cell>
-          <cell r="K25">
-            <v>4.01</v>
-          </cell>
-          <cell r="L25">
-            <v>3.49</v>
-          </cell>
-          <cell r="M25">
-            <v>5.14</v>
-          </cell>
-          <cell r="N25">
-            <v>3.99</v>
-          </cell>
-          <cell r="O25">
-            <v>4.29</v>
-          </cell>
-          <cell r="P25">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="Q25">
-            <v>4.49</v>
-          </cell>
-          <cell r="R25">
-            <v>3.99</v>
-          </cell>
-          <cell r="S25">
-            <v>3.99</v>
-          </cell>
-          <cell r="T25">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="U25">
-            <v>5.39</v>
-          </cell>
-          <cell r="V25">
-            <v>3.99</v>
-          </cell>
-          <cell r="W25">
-            <v>3.99</v>
-          </cell>
-          <cell r="X25">
-            <v>5.99</v>
-          </cell>
-          <cell r="Y25">
-            <v>9.5500000000000007</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
@@ -9316,1708 +7614,6 @@
             <v>3.33</v>
           </cell>
           <cell r="Y2">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>6.52</v>
-          </cell>
-          <cell r="C3">
-            <v>10.56</v>
-          </cell>
-          <cell r="D3">
-            <v>5.92</v>
-          </cell>
-          <cell r="E3">
-            <v>6.15</v>
-          </cell>
-          <cell r="F3">
-            <v>6.79</v>
-          </cell>
-          <cell r="G3">
-            <v>6.65</v>
-          </cell>
-          <cell r="H3">
-            <v>10</v>
-          </cell>
-          <cell r="I3">
-            <v>10.19</v>
-          </cell>
-          <cell r="J3">
-            <v>9.76</v>
-          </cell>
-          <cell r="K3">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L3">
-            <v>8.66</v>
-          </cell>
-          <cell r="M3">
-            <v>10</v>
-          </cell>
-          <cell r="N3">
-            <v>7.8</v>
-          </cell>
-          <cell r="O3">
-            <v>5.82</v>
-          </cell>
-          <cell r="P3">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q3">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R3">
-            <v>7.63</v>
-          </cell>
-          <cell r="S3">
-            <v>8.42</v>
-          </cell>
-          <cell r="T3">
-            <v>4.66</v>
-          </cell>
-          <cell r="U3">
-            <v>4.32</v>
-          </cell>
-          <cell r="V3">
-            <v>2.81</v>
-          </cell>
-          <cell r="W3">
-            <v>2.81</v>
-          </cell>
-          <cell r="X3">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y3">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>6.52</v>
-          </cell>
-          <cell r="C4">
-            <v>10.56</v>
-          </cell>
-          <cell r="D4">
-            <v>5.92</v>
-          </cell>
-          <cell r="E4">
-            <v>6.15</v>
-          </cell>
-          <cell r="F4">
-            <v>6.79</v>
-          </cell>
-          <cell r="G4">
-            <v>6.65</v>
-          </cell>
-          <cell r="H4">
-            <v>10</v>
-          </cell>
-          <cell r="I4">
-            <v>10.19</v>
-          </cell>
-          <cell r="J4">
-            <v>9.76</v>
-          </cell>
-          <cell r="K4">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L4">
-            <v>8.66</v>
-          </cell>
-          <cell r="M4">
-            <v>10</v>
-          </cell>
-          <cell r="N4">
-            <v>7.8</v>
-          </cell>
-          <cell r="O4">
-            <v>5.82</v>
-          </cell>
-          <cell r="P4">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q4">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R4">
-            <v>7.63</v>
-          </cell>
-          <cell r="S4">
-            <v>8.42</v>
-          </cell>
-          <cell r="T4">
-            <v>4.66</v>
-          </cell>
-          <cell r="U4">
-            <v>4.32</v>
-          </cell>
-          <cell r="V4">
-            <v>2.81</v>
-          </cell>
-          <cell r="W4">
-            <v>2.81</v>
-          </cell>
-          <cell r="X4">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y4">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>6.52</v>
-          </cell>
-          <cell r="C5">
-            <v>10.56</v>
-          </cell>
-          <cell r="D5">
-            <v>5.92</v>
-          </cell>
-          <cell r="E5">
-            <v>6.15</v>
-          </cell>
-          <cell r="F5">
-            <v>6.79</v>
-          </cell>
-          <cell r="G5">
-            <v>6.65</v>
-          </cell>
-          <cell r="H5">
-            <v>10</v>
-          </cell>
-          <cell r="I5">
-            <v>10.19</v>
-          </cell>
-          <cell r="J5">
-            <v>9.76</v>
-          </cell>
-          <cell r="K5">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L5">
-            <v>8.66</v>
-          </cell>
-          <cell r="M5">
-            <v>10</v>
-          </cell>
-          <cell r="N5">
-            <v>7.8</v>
-          </cell>
-          <cell r="O5">
-            <v>5.82</v>
-          </cell>
-          <cell r="P5">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q5">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R5">
-            <v>7.63</v>
-          </cell>
-          <cell r="S5">
-            <v>8.42</v>
-          </cell>
-          <cell r="T5">
-            <v>4.66</v>
-          </cell>
-          <cell r="U5">
-            <v>4.32</v>
-          </cell>
-          <cell r="V5">
-            <v>2.81</v>
-          </cell>
-          <cell r="W5">
-            <v>2.81</v>
-          </cell>
-          <cell r="X5">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y5">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>6.52</v>
-          </cell>
-          <cell r="C6">
-            <v>10.56</v>
-          </cell>
-          <cell r="D6">
-            <v>5.92</v>
-          </cell>
-          <cell r="E6">
-            <v>6.15</v>
-          </cell>
-          <cell r="F6">
-            <v>6.79</v>
-          </cell>
-          <cell r="G6">
-            <v>6.65</v>
-          </cell>
-          <cell r="H6">
-            <v>10</v>
-          </cell>
-          <cell r="I6">
-            <v>10.19</v>
-          </cell>
-          <cell r="J6">
-            <v>9.76</v>
-          </cell>
-          <cell r="K6">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L6">
-            <v>8.66</v>
-          </cell>
-          <cell r="M6">
-            <v>10</v>
-          </cell>
-          <cell r="N6">
-            <v>7.8</v>
-          </cell>
-          <cell r="O6">
-            <v>5.82</v>
-          </cell>
-          <cell r="P6">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q6">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R6">
-            <v>7.63</v>
-          </cell>
-          <cell r="S6">
-            <v>8.42</v>
-          </cell>
-          <cell r="T6">
-            <v>4.66</v>
-          </cell>
-          <cell r="U6">
-            <v>4.32</v>
-          </cell>
-          <cell r="V6">
-            <v>2.81</v>
-          </cell>
-          <cell r="W6">
-            <v>2.81</v>
-          </cell>
-          <cell r="X6">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y6">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>6.52</v>
-          </cell>
-          <cell r="C7">
-            <v>10.56</v>
-          </cell>
-          <cell r="D7">
-            <v>5.92</v>
-          </cell>
-          <cell r="E7">
-            <v>6.15</v>
-          </cell>
-          <cell r="F7">
-            <v>6.79</v>
-          </cell>
-          <cell r="G7">
-            <v>6.65</v>
-          </cell>
-          <cell r="H7">
-            <v>10</v>
-          </cell>
-          <cell r="I7">
-            <v>10.19</v>
-          </cell>
-          <cell r="J7">
-            <v>9.76</v>
-          </cell>
-          <cell r="K7">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L7">
-            <v>8.66</v>
-          </cell>
-          <cell r="M7">
-            <v>10</v>
-          </cell>
-          <cell r="N7">
-            <v>7.8</v>
-          </cell>
-          <cell r="O7">
-            <v>5.82</v>
-          </cell>
-          <cell r="P7">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q7">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R7">
-            <v>7.63</v>
-          </cell>
-          <cell r="S7">
-            <v>8.42</v>
-          </cell>
-          <cell r="T7">
-            <v>4.66</v>
-          </cell>
-          <cell r="U7">
-            <v>4.32</v>
-          </cell>
-          <cell r="V7">
-            <v>2.81</v>
-          </cell>
-          <cell r="W7">
-            <v>2.81</v>
-          </cell>
-          <cell r="X7">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y7">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>6.52</v>
-          </cell>
-          <cell r="C8">
-            <v>10.56</v>
-          </cell>
-          <cell r="D8">
-            <v>5.92</v>
-          </cell>
-          <cell r="E8">
-            <v>6.15</v>
-          </cell>
-          <cell r="F8">
-            <v>6.79</v>
-          </cell>
-          <cell r="G8">
-            <v>6.65</v>
-          </cell>
-          <cell r="H8">
-            <v>10</v>
-          </cell>
-          <cell r="I8">
-            <v>10.19</v>
-          </cell>
-          <cell r="J8">
-            <v>9.76</v>
-          </cell>
-          <cell r="K8">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L8">
-            <v>8.66</v>
-          </cell>
-          <cell r="M8">
-            <v>10</v>
-          </cell>
-          <cell r="N8">
-            <v>7.8</v>
-          </cell>
-          <cell r="O8">
-            <v>5.82</v>
-          </cell>
-          <cell r="P8">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q8">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R8">
-            <v>7.63</v>
-          </cell>
-          <cell r="S8">
-            <v>8.42</v>
-          </cell>
-          <cell r="T8">
-            <v>4.66</v>
-          </cell>
-          <cell r="U8">
-            <v>4.32</v>
-          </cell>
-          <cell r="V8">
-            <v>2.81</v>
-          </cell>
-          <cell r="W8">
-            <v>2.81</v>
-          </cell>
-          <cell r="X8">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y8">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>6.52</v>
-          </cell>
-          <cell r="C9">
-            <v>10.56</v>
-          </cell>
-          <cell r="D9">
-            <v>5.92</v>
-          </cell>
-          <cell r="E9">
-            <v>6.15</v>
-          </cell>
-          <cell r="F9">
-            <v>6.79</v>
-          </cell>
-          <cell r="G9">
-            <v>6.65</v>
-          </cell>
-          <cell r="H9">
-            <v>10</v>
-          </cell>
-          <cell r="I9">
-            <v>10.19</v>
-          </cell>
-          <cell r="J9">
-            <v>9.76</v>
-          </cell>
-          <cell r="K9">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L9">
-            <v>8.66</v>
-          </cell>
-          <cell r="M9">
-            <v>10</v>
-          </cell>
-          <cell r="N9">
-            <v>7.8</v>
-          </cell>
-          <cell r="O9">
-            <v>5.82</v>
-          </cell>
-          <cell r="P9">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q9">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R9">
-            <v>7.63</v>
-          </cell>
-          <cell r="S9">
-            <v>8.42</v>
-          </cell>
-          <cell r="T9">
-            <v>4.66</v>
-          </cell>
-          <cell r="U9">
-            <v>4.32</v>
-          </cell>
-          <cell r="V9">
-            <v>2.81</v>
-          </cell>
-          <cell r="W9">
-            <v>2.81</v>
-          </cell>
-          <cell r="X9">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y9">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>6.52</v>
-          </cell>
-          <cell r="C10">
-            <v>10.56</v>
-          </cell>
-          <cell r="D10">
-            <v>5.92</v>
-          </cell>
-          <cell r="E10">
-            <v>6.15</v>
-          </cell>
-          <cell r="F10">
-            <v>6.79</v>
-          </cell>
-          <cell r="G10">
-            <v>6.65</v>
-          </cell>
-          <cell r="H10">
-            <v>10</v>
-          </cell>
-          <cell r="I10">
-            <v>10.19</v>
-          </cell>
-          <cell r="J10">
-            <v>9.76</v>
-          </cell>
-          <cell r="K10">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L10">
-            <v>8.66</v>
-          </cell>
-          <cell r="M10">
-            <v>10</v>
-          </cell>
-          <cell r="N10">
-            <v>7.8</v>
-          </cell>
-          <cell r="O10">
-            <v>5.82</v>
-          </cell>
-          <cell r="P10">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q10">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R10">
-            <v>7.63</v>
-          </cell>
-          <cell r="S10">
-            <v>8.42</v>
-          </cell>
-          <cell r="T10">
-            <v>4.66</v>
-          </cell>
-          <cell r="U10">
-            <v>4.32</v>
-          </cell>
-          <cell r="V10">
-            <v>2.81</v>
-          </cell>
-          <cell r="W10">
-            <v>2.81</v>
-          </cell>
-          <cell r="X10">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y10">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>6.52</v>
-          </cell>
-          <cell r="C11">
-            <v>10.56</v>
-          </cell>
-          <cell r="D11">
-            <v>5.92</v>
-          </cell>
-          <cell r="E11">
-            <v>6.15</v>
-          </cell>
-          <cell r="F11">
-            <v>6.79</v>
-          </cell>
-          <cell r="G11">
-            <v>6.65</v>
-          </cell>
-          <cell r="H11">
-            <v>10</v>
-          </cell>
-          <cell r="I11">
-            <v>10.19</v>
-          </cell>
-          <cell r="J11">
-            <v>9.76</v>
-          </cell>
-          <cell r="K11">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L11">
-            <v>8.66</v>
-          </cell>
-          <cell r="M11">
-            <v>10</v>
-          </cell>
-          <cell r="N11">
-            <v>7.8</v>
-          </cell>
-          <cell r="O11">
-            <v>5.82</v>
-          </cell>
-          <cell r="P11">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q11">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R11">
-            <v>7.63</v>
-          </cell>
-          <cell r="S11">
-            <v>8.42</v>
-          </cell>
-          <cell r="T11">
-            <v>4.66</v>
-          </cell>
-          <cell r="U11">
-            <v>4.32</v>
-          </cell>
-          <cell r="V11">
-            <v>2.81</v>
-          </cell>
-          <cell r="W11">
-            <v>2.81</v>
-          </cell>
-          <cell r="X11">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y11">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>6.52</v>
-          </cell>
-          <cell r="C12">
-            <v>10.56</v>
-          </cell>
-          <cell r="D12">
-            <v>5.92</v>
-          </cell>
-          <cell r="E12">
-            <v>6.15</v>
-          </cell>
-          <cell r="F12">
-            <v>6.79</v>
-          </cell>
-          <cell r="G12">
-            <v>6.65</v>
-          </cell>
-          <cell r="H12">
-            <v>10</v>
-          </cell>
-          <cell r="I12">
-            <v>10.19</v>
-          </cell>
-          <cell r="J12">
-            <v>9.76</v>
-          </cell>
-          <cell r="K12">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L12">
-            <v>8.66</v>
-          </cell>
-          <cell r="M12">
-            <v>10</v>
-          </cell>
-          <cell r="N12">
-            <v>7.8</v>
-          </cell>
-          <cell r="O12">
-            <v>5.82</v>
-          </cell>
-          <cell r="P12">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q12">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R12">
-            <v>7.63</v>
-          </cell>
-          <cell r="S12">
-            <v>8.42</v>
-          </cell>
-          <cell r="T12">
-            <v>4.66</v>
-          </cell>
-          <cell r="U12">
-            <v>4.32</v>
-          </cell>
-          <cell r="V12">
-            <v>2.81</v>
-          </cell>
-          <cell r="W12">
-            <v>2.81</v>
-          </cell>
-          <cell r="X12">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y12">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>6.52</v>
-          </cell>
-          <cell r="C13">
-            <v>10.56</v>
-          </cell>
-          <cell r="D13">
-            <v>5.92</v>
-          </cell>
-          <cell r="E13">
-            <v>6.15</v>
-          </cell>
-          <cell r="F13">
-            <v>6.79</v>
-          </cell>
-          <cell r="G13">
-            <v>6.65</v>
-          </cell>
-          <cell r="H13">
-            <v>10</v>
-          </cell>
-          <cell r="I13">
-            <v>10.19</v>
-          </cell>
-          <cell r="J13">
-            <v>9.76</v>
-          </cell>
-          <cell r="K13">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L13">
-            <v>8.66</v>
-          </cell>
-          <cell r="M13">
-            <v>10</v>
-          </cell>
-          <cell r="N13">
-            <v>7.8</v>
-          </cell>
-          <cell r="O13">
-            <v>5.82</v>
-          </cell>
-          <cell r="P13">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q13">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R13">
-            <v>7.63</v>
-          </cell>
-          <cell r="S13">
-            <v>8.42</v>
-          </cell>
-          <cell r="T13">
-            <v>4.66</v>
-          </cell>
-          <cell r="U13">
-            <v>4.32</v>
-          </cell>
-          <cell r="V13">
-            <v>2.81</v>
-          </cell>
-          <cell r="W13">
-            <v>2.81</v>
-          </cell>
-          <cell r="X13">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y13">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>6.52</v>
-          </cell>
-          <cell r="C14">
-            <v>10.56</v>
-          </cell>
-          <cell r="D14">
-            <v>5.92</v>
-          </cell>
-          <cell r="E14">
-            <v>6.15</v>
-          </cell>
-          <cell r="F14">
-            <v>6.79</v>
-          </cell>
-          <cell r="G14">
-            <v>6.65</v>
-          </cell>
-          <cell r="H14">
-            <v>10</v>
-          </cell>
-          <cell r="I14">
-            <v>10.19</v>
-          </cell>
-          <cell r="J14">
-            <v>9.76</v>
-          </cell>
-          <cell r="K14">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L14">
-            <v>8.66</v>
-          </cell>
-          <cell r="M14">
-            <v>10</v>
-          </cell>
-          <cell r="N14">
-            <v>7.8</v>
-          </cell>
-          <cell r="O14">
-            <v>5.82</v>
-          </cell>
-          <cell r="P14">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q14">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R14">
-            <v>7.63</v>
-          </cell>
-          <cell r="S14">
-            <v>8.42</v>
-          </cell>
-          <cell r="T14">
-            <v>4.66</v>
-          </cell>
-          <cell r="U14">
-            <v>4.32</v>
-          </cell>
-          <cell r="V14">
-            <v>2.81</v>
-          </cell>
-          <cell r="W14">
-            <v>2.81</v>
-          </cell>
-          <cell r="X14">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y14">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>6.52</v>
-          </cell>
-          <cell r="C15">
-            <v>10.56</v>
-          </cell>
-          <cell r="D15">
-            <v>5.92</v>
-          </cell>
-          <cell r="E15">
-            <v>6.15</v>
-          </cell>
-          <cell r="F15">
-            <v>6.79</v>
-          </cell>
-          <cell r="G15">
-            <v>6.65</v>
-          </cell>
-          <cell r="H15">
-            <v>10</v>
-          </cell>
-          <cell r="I15">
-            <v>10.19</v>
-          </cell>
-          <cell r="J15">
-            <v>9.76</v>
-          </cell>
-          <cell r="K15">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L15">
-            <v>8.66</v>
-          </cell>
-          <cell r="M15">
-            <v>10</v>
-          </cell>
-          <cell r="N15">
-            <v>7.8</v>
-          </cell>
-          <cell r="O15">
-            <v>5.82</v>
-          </cell>
-          <cell r="P15">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q15">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R15">
-            <v>7.63</v>
-          </cell>
-          <cell r="S15">
-            <v>8.42</v>
-          </cell>
-          <cell r="T15">
-            <v>4.66</v>
-          </cell>
-          <cell r="U15">
-            <v>4.32</v>
-          </cell>
-          <cell r="V15">
-            <v>2.81</v>
-          </cell>
-          <cell r="W15">
-            <v>2.81</v>
-          </cell>
-          <cell r="X15">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y15">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>6.52</v>
-          </cell>
-          <cell r="C16">
-            <v>10.56</v>
-          </cell>
-          <cell r="D16">
-            <v>5.92</v>
-          </cell>
-          <cell r="E16">
-            <v>6.15</v>
-          </cell>
-          <cell r="F16">
-            <v>6.79</v>
-          </cell>
-          <cell r="G16">
-            <v>6.65</v>
-          </cell>
-          <cell r="H16">
-            <v>10</v>
-          </cell>
-          <cell r="I16">
-            <v>10.19</v>
-          </cell>
-          <cell r="J16">
-            <v>9.76</v>
-          </cell>
-          <cell r="K16">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L16">
-            <v>8.66</v>
-          </cell>
-          <cell r="M16">
-            <v>10</v>
-          </cell>
-          <cell r="N16">
-            <v>7.8</v>
-          </cell>
-          <cell r="O16">
-            <v>5.82</v>
-          </cell>
-          <cell r="P16">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q16">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R16">
-            <v>7.63</v>
-          </cell>
-          <cell r="S16">
-            <v>8.42</v>
-          </cell>
-          <cell r="T16">
-            <v>4.66</v>
-          </cell>
-          <cell r="U16">
-            <v>4.32</v>
-          </cell>
-          <cell r="V16">
-            <v>2.81</v>
-          </cell>
-          <cell r="W16">
-            <v>2.81</v>
-          </cell>
-          <cell r="X16">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y16">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>6.52</v>
-          </cell>
-          <cell r="C17">
-            <v>10.56</v>
-          </cell>
-          <cell r="D17">
-            <v>5.92</v>
-          </cell>
-          <cell r="E17">
-            <v>6.15</v>
-          </cell>
-          <cell r="F17">
-            <v>6.79</v>
-          </cell>
-          <cell r="G17">
-            <v>6.65</v>
-          </cell>
-          <cell r="H17">
-            <v>10</v>
-          </cell>
-          <cell r="I17">
-            <v>10.19</v>
-          </cell>
-          <cell r="J17">
-            <v>9.76</v>
-          </cell>
-          <cell r="K17">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L17">
-            <v>8.66</v>
-          </cell>
-          <cell r="M17">
-            <v>10</v>
-          </cell>
-          <cell r="N17">
-            <v>7.8</v>
-          </cell>
-          <cell r="O17">
-            <v>5.82</v>
-          </cell>
-          <cell r="P17">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q17">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R17">
-            <v>7.63</v>
-          </cell>
-          <cell r="S17">
-            <v>8.42</v>
-          </cell>
-          <cell r="T17">
-            <v>4.66</v>
-          </cell>
-          <cell r="U17">
-            <v>4.32</v>
-          </cell>
-          <cell r="V17">
-            <v>2.81</v>
-          </cell>
-          <cell r="W17">
-            <v>2.81</v>
-          </cell>
-          <cell r="X17">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y17">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>6.52</v>
-          </cell>
-          <cell r="C18">
-            <v>10.56</v>
-          </cell>
-          <cell r="D18">
-            <v>5.92</v>
-          </cell>
-          <cell r="E18">
-            <v>6.15</v>
-          </cell>
-          <cell r="F18">
-            <v>6.79</v>
-          </cell>
-          <cell r="G18">
-            <v>6.65</v>
-          </cell>
-          <cell r="H18">
-            <v>10</v>
-          </cell>
-          <cell r="I18">
-            <v>10.19</v>
-          </cell>
-          <cell r="J18">
-            <v>9.76</v>
-          </cell>
-          <cell r="K18">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L18">
-            <v>8.66</v>
-          </cell>
-          <cell r="M18">
-            <v>10</v>
-          </cell>
-          <cell r="N18">
-            <v>7.8</v>
-          </cell>
-          <cell r="O18">
-            <v>5.82</v>
-          </cell>
-          <cell r="P18">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q18">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R18">
-            <v>7.63</v>
-          </cell>
-          <cell r="S18">
-            <v>8.42</v>
-          </cell>
-          <cell r="T18">
-            <v>4.66</v>
-          </cell>
-          <cell r="U18">
-            <v>4.32</v>
-          </cell>
-          <cell r="V18">
-            <v>2.81</v>
-          </cell>
-          <cell r="W18">
-            <v>2.81</v>
-          </cell>
-          <cell r="X18">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y18">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>6.52</v>
-          </cell>
-          <cell r="C19">
-            <v>10.56</v>
-          </cell>
-          <cell r="D19">
-            <v>5.92</v>
-          </cell>
-          <cell r="E19">
-            <v>6.15</v>
-          </cell>
-          <cell r="F19">
-            <v>6.79</v>
-          </cell>
-          <cell r="G19">
-            <v>6.65</v>
-          </cell>
-          <cell r="H19">
-            <v>10</v>
-          </cell>
-          <cell r="I19">
-            <v>10.19</v>
-          </cell>
-          <cell r="J19">
-            <v>9.76</v>
-          </cell>
-          <cell r="K19">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L19">
-            <v>8.66</v>
-          </cell>
-          <cell r="M19">
-            <v>10</v>
-          </cell>
-          <cell r="N19">
-            <v>7.8</v>
-          </cell>
-          <cell r="O19">
-            <v>5.82</v>
-          </cell>
-          <cell r="P19">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q19">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R19">
-            <v>7.63</v>
-          </cell>
-          <cell r="S19">
-            <v>8.42</v>
-          </cell>
-          <cell r="T19">
-            <v>4.66</v>
-          </cell>
-          <cell r="U19">
-            <v>4.32</v>
-          </cell>
-          <cell r="V19">
-            <v>2.81</v>
-          </cell>
-          <cell r="W19">
-            <v>2.81</v>
-          </cell>
-          <cell r="X19">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y19">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>6.52</v>
-          </cell>
-          <cell r="C20">
-            <v>10.56</v>
-          </cell>
-          <cell r="D20">
-            <v>5.92</v>
-          </cell>
-          <cell r="E20">
-            <v>6.15</v>
-          </cell>
-          <cell r="F20">
-            <v>6.79</v>
-          </cell>
-          <cell r="G20">
-            <v>6.65</v>
-          </cell>
-          <cell r="H20">
-            <v>10</v>
-          </cell>
-          <cell r="I20">
-            <v>10.19</v>
-          </cell>
-          <cell r="J20">
-            <v>9.76</v>
-          </cell>
-          <cell r="K20">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L20">
-            <v>8.66</v>
-          </cell>
-          <cell r="M20">
-            <v>10</v>
-          </cell>
-          <cell r="N20">
-            <v>7.8</v>
-          </cell>
-          <cell r="O20">
-            <v>5.82</v>
-          </cell>
-          <cell r="P20">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q20">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R20">
-            <v>7.63</v>
-          </cell>
-          <cell r="S20">
-            <v>8.42</v>
-          </cell>
-          <cell r="T20">
-            <v>4.66</v>
-          </cell>
-          <cell r="U20">
-            <v>4.32</v>
-          </cell>
-          <cell r="V20">
-            <v>2.81</v>
-          </cell>
-          <cell r="W20">
-            <v>2.81</v>
-          </cell>
-          <cell r="X20">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y20">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>6.52</v>
-          </cell>
-          <cell r="C21">
-            <v>10.56</v>
-          </cell>
-          <cell r="D21">
-            <v>5.92</v>
-          </cell>
-          <cell r="E21">
-            <v>6.15</v>
-          </cell>
-          <cell r="F21">
-            <v>6.79</v>
-          </cell>
-          <cell r="G21">
-            <v>6.65</v>
-          </cell>
-          <cell r="H21">
-            <v>10</v>
-          </cell>
-          <cell r="I21">
-            <v>10.19</v>
-          </cell>
-          <cell r="J21">
-            <v>9.76</v>
-          </cell>
-          <cell r="K21">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L21">
-            <v>8.66</v>
-          </cell>
-          <cell r="M21">
-            <v>10</v>
-          </cell>
-          <cell r="N21">
-            <v>7.8</v>
-          </cell>
-          <cell r="O21">
-            <v>5.82</v>
-          </cell>
-          <cell r="P21">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q21">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R21">
-            <v>7.63</v>
-          </cell>
-          <cell r="S21">
-            <v>8.42</v>
-          </cell>
-          <cell r="T21">
-            <v>4.66</v>
-          </cell>
-          <cell r="U21">
-            <v>4.32</v>
-          </cell>
-          <cell r="V21">
-            <v>2.81</v>
-          </cell>
-          <cell r="W21">
-            <v>2.81</v>
-          </cell>
-          <cell r="X21">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y21">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>6.52</v>
-          </cell>
-          <cell r="C22">
-            <v>10.56</v>
-          </cell>
-          <cell r="D22">
-            <v>5.92</v>
-          </cell>
-          <cell r="E22">
-            <v>6.15</v>
-          </cell>
-          <cell r="F22">
-            <v>6.79</v>
-          </cell>
-          <cell r="G22">
-            <v>6.65</v>
-          </cell>
-          <cell r="H22">
-            <v>10</v>
-          </cell>
-          <cell r="I22">
-            <v>10.19</v>
-          </cell>
-          <cell r="J22">
-            <v>9.76</v>
-          </cell>
-          <cell r="K22">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L22">
-            <v>8.66</v>
-          </cell>
-          <cell r="M22">
-            <v>10</v>
-          </cell>
-          <cell r="N22">
-            <v>7.8</v>
-          </cell>
-          <cell r="O22">
-            <v>5.82</v>
-          </cell>
-          <cell r="P22">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q22">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R22">
-            <v>7.63</v>
-          </cell>
-          <cell r="S22">
-            <v>8.42</v>
-          </cell>
-          <cell r="T22">
-            <v>4.66</v>
-          </cell>
-          <cell r="U22">
-            <v>4.32</v>
-          </cell>
-          <cell r="V22">
-            <v>2.81</v>
-          </cell>
-          <cell r="W22">
-            <v>2.81</v>
-          </cell>
-          <cell r="X22">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y22">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>6.52</v>
-          </cell>
-          <cell r="C23">
-            <v>10.56</v>
-          </cell>
-          <cell r="D23">
-            <v>5.92</v>
-          </cell>
-          <cell r="E23">
-            <v>6.15</v>
-          </cell>
-          <cell r="F23">
-            <v>6.79</v>
-          </cell>
-          <cell r="G23">
-            <v>6.65</v>
-          </cell>
-          <cell r="H23">
-            <v>10</v>
-          </cell>
-          <cell r="I23">
-            <v>10.19</v>
-          </cell>
-          <cell r="J23">
-            <v>9.76</v>
-          </cell>
-          <cell r="K23">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L23">
-            <v>8.66</v>
-          </cell>
-          <cell r="M23">
-            <v>10</v>
-          </cell>
-          <cell r="N23">
-            <v>7.8</v>
-          </cell>
-          <cell r="O23">
-            <v>5.82</v>
-          </cell>
-          <cell r="P23">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q23">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R23">
-            <v>7.63</v>
-          </cell>
-          <cell r="S23">
-            <v>8.42</v>
-          </cell>
-          <cell r="T23">
-            <v>4.66</v>
-          </cell>
-          <cell r="U23">
-            <v>4.32</v>
-          </cell>
-          <cell r="V23">
-            <v>2.81</v>
-          </cell>
-          <cell r="W23">
-            <v>2.81</v>
-          </cell>
-          <cell r="X23">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y23">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>6.52</v>
-          </cell>
-          <cell r="C24">
-            <v>10.56</v>
-          </cell>
-          <cell r="D24">
-            <v>5.92</v>
-          </cell>
-          <cell r="E24">
-            <v>6.15</v>
-          </cell>
-          <cell r="F24">
-            <v>6.79</v>
-          </cell>
-          <cell r="G24">
-            <v>6.65</v>
-          </cell>
-          <cell r="H24">
-            <v>10</v>
-          </cell>
-          <cell r="I24">
-            <v>10.19</v>
-          </cell>
-          <cell r="J24">
-            <v>9.76</v>
-          </cell>
-          <cell r="K24">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L24">
-            <v>8.66</v>
-          </cell>
-          <cell r="M24">
-            <v>10</v>
-          </cell>
-          <cell r="N24">
-            <v>7.8</v>
-          </cell>
-          <cell r="O24">
-            <v>5.82</v>
-          </cell>
-          <cell r="P24">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q24">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R24">
-            <v>7.63</v>
-          </cell>
-          <cell r="S24">
-            <v>8.42</v>
-          </cell>
-          <cell r="T24">
-            <v>4.66</v>
-          </cell>
-          <cell r="U24">
-            <v>4.32</v>
-          </cell>
-          <cell r="V24">
-            <v>2.81</v>
-          </cell>
-          <cell r="W24">
-            <v>2.81</v>
-          </cell>
-          <cell r="X24">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y24">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>6.52</v>
-          </cell>
-          <cell r="C25">
-            <v>10.56</v>
-          </cell>
-          <cell r="D25">
-            <v>5.92</v>
-          </cell>
-          <cell r="E25">
-            <v>6.15</v>
-          </cell>
-          <cell r="F25">
-            <v>6.79</v>
-          </cell>
-          <cell r="G25">
-            <v>6.65</v>
-          </cell>
-          <cell r="H25">
-            <v>10</v>
-          </cell>
-          <cell r="I25">
-            <v>10.19</v>
-          </cell>
-          <cell r="J25">
-            <v>9.76</v>
-          </cell>
-          <cell r="K25">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L25">
-            <v>8.66</v>
-          </cell>
-          <cell r="M25">
-            <v>10</v>
-          </cell>
-          <cell r="N25">
-            <v>7.8</v>
-          </cell>
-          <cell r="O25">
-            <v>5.82</v>
-          </cell>
-          <cell r="P25">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q25">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R25">
-            <v>7.63</v>
-          </cell>
-          <cell r="S25">
-            <v>8.42</v>
-          </cell>
-          <cell r="T25">
-            <v>4.66</v>
-          </cell>
-          <cell r="U25">
-            <v>4.32</v>
-          </cell>
-          <cell r="V25">
-            <v>2.81</v>
-          </cell>
-          <cell r="W25">
-            <v>2.81</v>
-          </cell>
-          <cell r="X25">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y25">
             <v>8.9700000000000006</v>
           </cell>
         </row>
@@ -11035,14 +7631,16 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Energy, Winter"/>
+      <sheetName val="Secondary Reserve, Winter"/>
+      <sheetName val="Tertiary Reserve Up, Winter"/>
+      <sheetName val="Tertiary Reserve Down, Winter"/>
+      <sheetName val="Flexibility, Winter"/>
       <sheetName val="Energy, Summer"/>
       <sheetName val="Secondary Reserve, Summer"/>
       <sheetName val="Tertiary Reserve Up, Summer"/>
       <sheetName val="Tertiary Reserve Down, Summer"/>
-      <sheetName val="Energy, Winter"/>
-      <sheetName val="Secondary Reserve, Winter"/>
-      <sheetName val="Tertiary Reserve Up, Winter"/>
-      <sheetName val="Tertiary Reserve Down, Winter"/>
+      <sheetName val="Flexibility, Summer"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -11060,6 +7658,8 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11331,7 +7931,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A7" sqref="A7:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11424,7 +8024,7 @@
   <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16212,7 +12812,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18910,7 +15510,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21608,7 +18208,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21796,99 +18396,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>'[3]CostFlex, Winter'!B3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C3" s="1">
-        <f>'[3]CostFlex, Winter'!C3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D3" s="1">
-        <f>'[3]CostFlex, Winter'!D3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E3" s="1">
-        <f>'[3]CostFlex, Winter'!E3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F3" s="1">
-        <f>'[3]CostFlex, Winter'!F3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G3" s="1">
-        <f>'[3]CostFlex, Winter'!G3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H3" s="1">
-        <f>'[3]CostFlex, Winter'!H3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I3" s="1">
-        <f>'[3]CostFlex, Winter'!I3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J3" s="1">
-        <f>'[3]CostFlex, Winter'!J3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K3" s="1">
-        <f>'[3]CostFlex, Winter'!K3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L3" s="1">
-        <f>'[3]CostFlex, Winter'!L3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M3" s="1">
-        <f>'[3]CostFlex, Winter'!M3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N3" s="1">
-        <f>'[3]CostFlex, Winter'!N3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O3" s="1">
-        <f>'[3]CostFlex, Winter'!O3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P3" s="1">
-        <f>'[3]CostFlex, Winter'!P3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q3" s="1">
-        <f>'[3]CostFlex, Winter'!Q3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R3" s="1">
-        <f>'[3]CostFlex, Winter'!R3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S3" s="1">
-        <f>'[3]CostFlex, Winter'!S3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T3" s="1">
-        <f>'[3]CostFlex, Winter'!T3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U3" s="1">
-        <f>'[3]CostFlex, Winter'!U3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V3" s="1">
-        <f>'[3]CostFlex, Winter'!V3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W3" s="1">
-        <f>'[3]CostFlex, Winter'!W3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X3" s="1">
-        <f>'[3]CostFlex, Winter'!X3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y3" s="1">
-        <f>'[3]CostFlex, Winter'!Y3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -21897,99 +18497,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f>'[3]CostFlex, Winter'!B4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C4" s="1">
-        <f>'[3]CostFlex, Winter'!C4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D4" s="1">
-        <f>'[3]CostFlex, Winter'!D4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E4" s="1">
-        <f>'[3]CostFlex, Winter'!E4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F4" s="1">
-        <f>'[3]CostFlex, Winter'!F4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G4" s="1">
-        <f>'[3]CostFlex, Winter'!G4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H4" s="1">
-        <f>'[3]CostFlex, Winter'!H4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I4" s="1">
-        <f>'[3]CostFlex, Winter'!I4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J4" s="1">
-        <f>'[3]CostFlex, Winter'!J4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K4" s="1">
-        <f>'[3]CostFlex, Winter'!K4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L4" s="1">
-        <f>'[3]CostFlex, Winter'!L4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M4" s="1">
-        <f>'[3]CostFlex, Winter'!M4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N4" s="1">
-        <f>'[3]CostFlex, Winter'!N4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O4" s="1">
-        <f>'[3]CostFlex, Winter'!O4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P4" s="1">
-        <f>'[3]CostFlex, Winter'!P4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q4" s="1">
-        <f>'[3]CostFlex, Winter'!Q4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R4" s="1">
-        <f>'[3]CostFlex, Winter'!R4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S4" s="1">
-        <f>'[3]CostFlex, Winter'!S4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T4" s="1">
-        <f>'[3]CostFlex, Winter'!T4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U4" s="1">
-        <f>'[3]CostFlex, Winter'!U4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V4" s="1">
-        <f>'[3]CostFlex, Winter'!V4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W4" s="1">
-        <f>'[3]CostFlex, Winter'!W4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X4" s="1">
-        <f>'[3]CostFlex, Winter'!X4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y4" s="1">
-        <f>'[3]CostFlex, Winter'!Y4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -21998,99 +18598,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f>'[3]CostFlex, Winter'!B5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C5" s="1">
-        <f>'[3]CostFlex, Winter'!C5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D5" s="1">
-        <f>'[3]CostFlex, Winter'!D5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E5" s="1">
-        <f>'[3]CostFlex, Winter'!E5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F5" s="1">
-        <f>'[3]CostFlex, Winter'!F5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G5" s="1">
-        <f>'[3]CostFlex, Winter'!G5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H5" s="1">
-        <f>'[3]CostFlex, Winter'!H5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I5" s="1">
-        <f>'[3]CostFlex, Winter'!I5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J5" s="1">
-        <f>'[3]CostFlex, Winter'!J5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K5" s="1">
-        <f>'[3]CostFlex, Winter'!K5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L5" s="1">
-        <f>'[3]CostFlex, Winter'!L5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M5" s="1">
-        <f>'[3]CostFlex, Winter'!M5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N5" s="1">
-        <f>'[3]CostFlex, Winter'!N5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O5" s="1">
-        <f>'[3]CostFlex, Winter'!O5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P5" s="1">
-        <f>'[3]CostFlex, Winter'!P5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q5" s="1">
-        <f>'[3]CostFlex, Winter'!Q5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R5" s="1">
-        <f>'[3]CostFlex, Winter'!R5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S5" s="1">
-        <f>'[3]CostFlex, Winter'!S5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T5" s="1">
-        <f>'[3]CostFlex, Winter'!T5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U5" s="1">
-        <f>'[3]CostFlex, Winter'!U5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V5" s="1">
-        <f>'[3]CostFlex, Winter'!V5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W5" s="1">
-        <f>'[3]CostFlex, Winter'!W5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X5" s="1">
-        <f>'[3]CostFlex, Winter'!X5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y5" s="1">
-        <f>'[3]CostFlex, Winter'!Y5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -22099,99 +18699,99 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f>'[3]CostFlex, Winter'!B6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C6" s="1">
-        <f>'[3]CostFlex, Winter'!C6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D6" s="1">
-        <f>'[3]CostFlex, Winter'!D6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E6" s="1">
-        <f>'[3]CostFlex, Winter'!E6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F6" s="1">
-        <f>'[3]CostFlex, Winter'!F6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G6" s="1">
-        <f>'[3]CostFlex, Winter'!G6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H6" s="1">
-        <f>'[3]CostFlex, Winter'!H6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I6" s="1">
-        <f>'[3]CostFlex, Winter'!I6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J6" s="1">
-        <f>'[3]CostFlex, Winter'!J6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K6" s="1">
-        <f>'[3]CostFlex, Winter'!K6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L6" s="1">
-        <f>'[3]CostFlex, Winter'!L6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M6" s="1">
-        <f>'[3]CostFlex, Winter'!M6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N6" s="1">
-        <f>'[3]CostFlex, Winter'!N6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O6" s="1">
-        <f>'[3]CostFlex, Winter'!O6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P6" s="1">
-        <f>'[3]CostFlex, Winter'!P6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q6" s="1">
-        <f>'[3]CostFlex, Winter'!Q6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R6" s="1">
-        <f>'[3]CostFlex, Winter'!R6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S6" s="1">
-        <f>'[3]CostFlex, Winter'!S6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T6" s="1">
-        <f>'[3]CostFlex, Winter'!T6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U6" s="1">
-        <f>'[3]CostFlex, Winter'!U6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V6" s="1">
-        <f>'[3]CostFlex, Winter'!V6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W6" s="1">
-        <f>'[3]CostFlex, Winter'!W6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X6" s="1">
-        <f>'[3]CostFlex, Winter'!X6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y6" s="1">
-        <f>'[3]CostFlex, Winter'!Y6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -22200,99 +18800,99 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <f>'[3]CostFlex, Winter'!B7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C7" s="1">
-        <f>'[3]CostFlex, Winter'!C7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D7" s="1">
-        <f>'[3]CostFlex, Winter'!D7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E7" s="1">
-        <f>'[3]CostFlex, Winter'!E7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F7" s="1">
-        <f>'[3]CostFlex, Winter'!F7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G7" s="1">
-        <f>'[3]CostFlex, Winter'!G7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H7" s="1">
-        <f>'[3]CostFlex, Winter'!H7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I7" s="1">
-        <f>'[3]CostFlex, Winter'!I7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J7" s="1">
-        <f>'[3]CostFlex, Winter'!J7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K7" s="1">
-        <f>'[3]CostFlex, Winter'!K7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L7" s="1">
-        <f>'[3]CostFlex, Winter'!L7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M7" s="1">
-        <f>'[3]CostFlex, Winter'!M7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N7" s="1">
-        <f>'[3]CostFlex, Winter'!N7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O7" s="1">
-        <f>'[3]CostFlex, Winter'!O7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P7" s="1">
-        <f>'[3]CostFlex, Winter'!P7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q7" s="1">
-        <f>'[3]CostFlex, Winter'!Q7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R7" s="1">
-        <f>'[3]CostFlex, Winter'!R7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S7" s="1">
-        <f>'[3]CostFlex, Winter'!S7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T7" s="1">
-        <f>'[3]CostFlex, Winter'!T7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U7" s="1">
-        <f>'[3]CostFlex, Winter'!U7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V7" s="1">
-        <f>'[3]CostFlex, Winter'!V7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W7" s="1">
-        <f>'[3]CostFlex, Winter'!W7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X7" s="1">
-        <f>'[3]CostFlex, Winter'!X7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y7" s="1">
-        <f>'[3]CostFlex, Winter'!Y7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -22301,99 +18901,99 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <f>'[3]CostFlex, Winter'!B8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C8" s="1">
-        <f>'[3]CostFlex, Winter'!C8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D8" s="1">
-        <f>'[3]CostFlex, Winter'!D8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E8" s="1">
-        <f>'[3]CostFlex, Winter'!E8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F8" s="1">
-        <f>'[3]CostFlex, Winter'!F8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G8" s="1">
-        <f>'[3]CostFlex, Winter'!G8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H8" s="1">
-        <f>'[3]CostFlex, Winter'!H8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I8" s="1">
-        <f>'[3]CostFlex, Winter'!I8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J8" s="1">
-        <f>'[3]CostFlex, Winter'!J8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K8" s="1">
-        <f>'[3]CostFlex, Winter'!K8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L8" s="1">
-        <f>'[3]CostFlex, Winter'!L8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M8" s="1">
-        <f>'[3]CostFlex, Winter'!M8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N8" s="1">
-        <f>'[3]CostFlex, Winter'!N8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O8" s="1">
-        <f>'[3]CostFlex, Winter'!O8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P8" s="1">
-        <f>'[3]CostFlex, Winter'!P8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q8" s="1">
-        <f>'[3]CostFlex, Winter'!Q8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R8" s="1">
-        <f>'[3]CostFlex, Winter'!R8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S8" s="1">
-        <f>'[3]CostFlex, Winter'!S8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T8" s="1">
-        <f>'[3]CostFlex, Winter'!T8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U8" s="1">
-        <f>'[3]CostFlex, Winter'!U8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V8" s="1">
-        <f>'[3]CostFlex, Winter'!V8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W8" s="1">
-        <f>'[3]CostFlex, Winter'!W8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X8" s="1">
-        <f>'[3]CostFlex, Winter'!X8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y8" s="1">
-        <f>'[3]CostFlex, Winter'!Y8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -22402,99 +19002,99 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <f>'[3]CostFlex, Winter'!B9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C9" s="1">
-        <f>'[3]CostFlex, Winter'!C9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D9" s="1">
-        <f>'[3]CostFlex, Winter'!D9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E9" s="1">
-        <f>'[3]CostFlex, Winter'!E9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F9" s="1">
-        <f>'[3]CostFlex, Winter'!F9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G9" s="1">
-        <f>'[3]CostFlex, Winter'!G9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H9" s="1">
-        <f>'[3]CostFlex, Winter'!H9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I9" s="1">
-        <f>'[3]CostFlex, Winter'!I9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J9" s="1">
-        <f>'[3]CostFlex, Winter'!J9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K9" s="1">
-        <f>'[3]CostFlex, Winter'!K9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L9" s="1">
-        <f>'[3]CostFlex, Winter'!L9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M9" s="1">
-        <f>'[3]CostFlex, Winter'!M9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N9" s="1">
-        <f>'[3]CostFlex, Winter'!N9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O9" s="1">
-        <f>'[3]CostFlex, Winter'!O9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P9" s="1">
-        <f>'[3]CostFlex, Winter'!P9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q9" s="1">
-        <f>'[3]CostFlex, Winter'!Q9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R9" s="1">
-        <f>'[3]CostFlex, Winter'!R9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S9" s="1">
-        <f>'[3]CostFlex, Winter'!S9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T9" s="1">
-        <f>'[3]CostFlex, Winter'!T9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U9" s="1">
-        <f>'[3]CostFlex, Winter'!U9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V9" s="1">
-        <f>'[3]CostFlex, Winter'!V9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W9" s="1">
-        <f>'[3]CostFlex, Winter'!W9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X9" s="1">
-        <f>'[3]CostFlex, Winter'!X9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y9" s="1">
-        <f>'[3]CostFlex, Winter'!Y9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -22503,99 +19103,99 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <f>'[3]CostFlex, Winter'!B10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C10" s="1">
-        <f>'[3]CostFlex, Winter'!C10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D10" s="1">
-        <f>'[3]CostFlex, Winter'!D10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E10" s="1">
-        <f>'[3]CostFlex, Winter'!E10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F10" s="1">
-        <f>'[3]CostFlex, Winter'!F10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G10" s="1">
-        <f>'[3]CostFlex, Winter'!G10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H10" s="1">
-        <f>'[3]CostFlex, Winter'!H10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I10" s="1">
-        <f>'[3]CostFlex, Winter'!I10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J10" s="1">
-        <f>'[3]CostFlex, Winter'!J10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K10" s="1">
-        <f>'[3]CostFlex, Winter'!K10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L10" s="1">
-        <f>'[3]CostFlex, Winter'!L10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M10" s="1">
-        <f>'[3]CostFlex, Winter'!M10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N10" s="1">
-        <f>'[3]CostFlex, Winter'!N10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O10" s="1">
-        <f>'[3]CostFlex, Winter'!O10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P10" s="1">
-        <f>'[3]CostFlex, Winter'!P10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q10" s="1">
-        <f>'[3]CostFlex, Winter'!Q10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R10" s="1">
-        <f>'[3]CostFlex, Winter'!R10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S10" s="1">
-        <f>'[3]CostFlex, Winter'!S10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T10" s="1">
-        <f>'[3]CostFlex, Winter'!T10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U10" s="1">
-        <f>'[3]CostFlex, Winter'!U10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V10" s="1">
-        <f>'[3]CostFlex, Winter'!V10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W10" s="1">
-        <f>'[3]CostFlex, Winter'!W10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X10" s="1">
-        <f>'[3]CostFlex, Winter'!X10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y10" s="1">
-        <f>'[3]CostFlex, Winter'!Y10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -22604,99 +19204,99 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <f>'[3]CostFlex, Winter'!B11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C11" s="1">
-        <f>'[3]CostFlex, Winter'!C11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D11" s="1">
-        <f>'[3]CostFlex, Winter'!D11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E11" s="1">
-        <f>'[3]CostFlex, Winter'!E11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F11" s="1">
-        <f>'[3]CostFlex, Winter'!F11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G11" s="1">
-        <f>'[3]CostFlex, Winter'!G11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H11" s="1">
-        <f>'[3]CostFlex, Winter'!H11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I11" s="1">
-        <f>'[3]CostFlex, Winter'!I11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J11" s="1">
-        <f>'[3]CostFlex, Winter'!J11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K11" s="1">
-        <f>'[3]CostFlex, Winter'!K11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L11" s="1">
-        <f>'[3]CostFlex, Winter'!L11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M11" s="1">
-        <f>'[3]CostFlex, Winter'!M11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N11" s="1">
-        <f>'[3]CostFlex, Winter'!N11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O11" s="1">
-        <f>'[3]CostFlex, Winter'!O11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P11" s="1">
-        <f>'[3]CostFlex, Winter'!P11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q11" s="1">
-        <f>'[3]CostFlex, Winter'!Q11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R11" s="1">
-        <f>'[3]CostFlex, Winter'!R11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S11" s="1">
-        <f>'[3]CostFlex, Winter'!S11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T11" s="1">
-        <f>'[3]CostFlex, Winter'!T11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U11" s="1">
-        <f>'[3]CostFlex, Winter'!U11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V11" s="1">
-        <f>'[3]CostFlex, Winter'!V11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W11" s="1">
-        <f>'[3]CostFlex, Winter'!W11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X11" s="1">
-        <f>'[3]CostFlex, Winter'!X11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y11" s="1">
-        <f>'[3]CostFlex, Winter'!Y11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -22705,99 +19305,99 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <f>'[3]CostFlex, Winter'!B12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C12" s="1">
-        <f>'[3]CostFlex, Winter'!C12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D12" s="1">
-        <f>'[3]CostFlex, Winter'!D12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E12" s="1">
-        <f>'[3]CostFlex, Winter'!E12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F12" s="1">
-        <f>'[3]CostFlex, Winter'!F12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G12" s="1">
-        <f>'[3]CostFlex, Winter'!G12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H12" s="1">
-        <f>'[3]CostFlex, Winter'!H12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I12" s="1">
-        <f>'[3]CostFlex, Winter'!I12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J12" s="1">
-        <f>'[3]CostFlex, Winter'!J12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K12" s="1">
-        <f>'[3]CostFlex, Winter'!K12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L12" s="1">
-        <f>'[3]CostFlex, Winter'!L12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M12" s="1">
-        <f>'[3]CostFlex, Winter'!M12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N12" s="1">
-        <f>'[3]CostFlex, Winter'!N12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O12" s="1">
-        <f>'[3]CostFlex, Winter'!O12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P12" s="1">
-        <f>'[3]CostFlex, Winter'!P12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q12" s="1">
-        <f>'[3]CostFlex, Winter'!Q12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R12" s="1">
-        <f>'[3]CostFlex, Winter'!R12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S12" s="1">
-        <f>'[3]CostFlex, Winter'!S12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T12" s="1">
-        <f>'[3]CostFlex, Winter'!T12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U12" s="1">
-        <f>'[3]CostFlex, Winter'!U12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V12" s="1">
-        <f>'[3]CostFlex, Winter'!V12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W12" s="1">
-        <f>'[3]CostFlex, Winter'!W12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X12" s="1">
-        <f>'[3]CostFlex, Winter'!X12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y12" s="1">
-        <f>'[3]CostFlex, Winter'!Y12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -22806,99 +19406,99 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <f>'[3]CostFlex, Winter'!B13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C13" s="1">
-        <f>'[3]CostFlex, Winter'!C13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D13" s="1">
-        <f>'[3]CostFlex, Winter'!D13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E13" s="1">
-        <f>'[3]CostFlex, Winter'!E13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F13" s="1">
-        <f>'[3]CostFlex, Winter'!F13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G13" s="1">
-        <f>'[3]CostFlex, Winter'!G13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H13" s="1">
-        <f>'[3]CostFlex, Winter'!H13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I13" s="1">
-        <f>'[3]CostFlex, Winter'!I13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J13" s="1">
-        <f>'[3]CostFlex, Winter'!J13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K13" s="1">
-        <f>'[3]CostFlex, Winter'!K13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L13" s="1">
-        <f>'[3]CostFlex, Winter'!L13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M13" s="1">
-        <f>'[3]CostFlex, Winter'!M13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N13" s="1">
-        <f>'[3]CostFlex, Winter'!N13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O13" s="1">
-        <f>'[3]CostFlex, Winter'!O13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P13" s="1">
-        <f>'[3]CostFlex, Winter'!P13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q13" s="1">
-        <f>'[3]CostFlex, Winter'!Q13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R13" s="1">
-        <f>'[3]CostFlex, Winter'!R13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S13" s="1">
-        <f>'[3]CostFlex, Winter'!S13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T13" s="1">
-        <f>'[3]CostFlex, Winter'!T13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U13" s="1">
-        <f>'[3]CostFlex, Winter'!U13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V13" s="1">
-        <f>'[3]CostFlex, Winter'!V13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W13" s="1">
-        <f>'[3]CostFlex, Winter'!W13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X13" s="1">
-        <f>'[3]CostFlex, Winter'!X13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y13" s="1">
-        <f>'[3]CostFlex, Winter'!Y13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -22907,99 +19507,99 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <f>'[3]CostFlex, Winter'!B14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C14" s="1">
-        <f>'[3]CostFlex, Winter'!C14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D14" s="1">
-        <f>'[3]CostFlex, Winter'!D14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E14" s="1">
-        <f>'[3]CostFlex, Winter'!E14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F14" s="1">
-        <f>'[3]CostFlex, Winter'!F14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G14" s="1">
-        <f>'[3]CostFlex, Winter'!G14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H14" s="1">
-        <f>'[3]CostFlex, Winter'!H14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I14" s="1">
-        <f>'[3]CostFlex, Winter'!I14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J14" s="1">
-        <f>'[3]CostFlex, Winter'!J14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K14" s="1">
-        <f>'[3]CostFlex, Winter'!K14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L14" s="1">
-        <f>'[3]CostFlex, Winter'!L14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M14" s="1">
-        <f>'[3]CostFlex, Winter'!M14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N14" s="1">
-        <f>'[3]CostFlex, Winter'!N14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O14" s="1">
-        <f>'[3]CostFlex, Winter'!O14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P14" s="1">
-        <f>'[3]CostFlex, Winter'!P14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q14" s="1">
-        <f>'[3]CostFlex, Winter'!Q14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R14" s="1">
-        <f>'[3]CostFlex, Winter'!R14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S14" s="1">
-        <f>'[3]CostFlex, Winter'!S14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T14" s="1">
-        <f>'[3]CostFlex, Winter'!T14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U14" s="1">
-        <f>'[3]CostFlex, Winter'!U14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V14" s="1">
-        <f>'[3]CostFlex, Winter'!V14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W14" s="1">
-        <f>'[3]CostFlex, Winter'!W14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X14" s="1">
-        <f>'[3]CostFlex, Winter'!X14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y14" s="1">
-        <f>'[3]CostFlex, Winter'!Y14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -23008,99 +19608,99 @@
         <v>20</v>
       </c>
       <c r="B15" s="1">
-        <f>'[3]CostFlex, Winter'!B15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C15" s="1">
-        <f>'[3]CostFlex, Winter'!C15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D15" s="1">
-        <f>'[3]CostFlex, Winter'!D15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E15" s="1">
-        <f>'[3]CostFlex, Winter'!E15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F15" s="1">
-        <f>'[3]CostFlex, Winter'!F15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G15" s="1">
-        <f>'[3]CostFlex, Winter'!G15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H15" s="1">
-        <f>'[3]CostFlex, Winter'!H15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I15" s="1">
-        <f>'[3]CostFlex, Winter'!I15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J15" s="1">
-        <f>'[3]CostFlex, Winter'!J15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K15" s="1">
-        <f>'[3]CostFlex, Winter'!K15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L15" s="1">
-        <f>'[3]CostFlex, Winter'!L15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M15" s="1">
-        <f>'[3]CostFlex, Winter'!M15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N15" s="1">
-        <f>'[3]CostFlex, Winter'!N15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O15" s="1">
-        <f>'[3]CostFlex, Winter'!O15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P15" s="1">
-        <f>'[3]CostFlex, Winter'!P15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q15" s="1">
-        <f>'[3]CostFlex, Winter'!Q15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R15" s="1">
-        <f>'[3]CostFlex, Winter'!R15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S15" s="1">
-        <f>'[3]CostFlex, Winter'!S15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T15" s="1">
-        <f>'[3]CostFlex, Winter'!T15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U15" s="1">
-        <f>'[3]CostFlex, Winter'!U15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V15" s="1">
-        <f>'[3]CostFlex, Winter'!V15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W15" s="1">
-        <f>'[3]CostFlex, Winter'!W15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X15" s="1">
-        <f>'[3]CostFlex, Winter'!X15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y15" s="1">
-        <f>'[3]CostFlex, Winter'!Y15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -23109,99 +19709,99 @@
         <v>21</v>
       </c>
       <c r="B16" s="1">
-        <f>'[3]CostFlex, Winter'!B16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C16" s="1">
-        <f>'[3]CostFlex, Winter'!C16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D16" s="1">
-        <f>'[3]CostFlex, Winter'!D16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E16" s="1">
-        <f>'[3]CostFlex, Winter'!E16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F16" s="1">
-        <f>'[3]CostFlex, Winter'!F16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G16" s="1">
-        <f>'[3]CostFlex, Winter'!G16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H16" s="1">
-        <f>'[3]CostFlex, Winter'!H16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I16" s="1">
-        <f>'[3]CostFlex, Winter'!I16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J16" s="1">
-        <f>'[3]CostFlex, Winter'!J16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K16" s="1">
-        <f>'[3]CostFlex, Winter'!K16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L16" s="1">
-        <f>'[3]CostFlex, Winter'!L16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M16" s="1">
-        <f>'[3]CostFlex, Winter'!M16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N16" s="1">
-        <f>'[3]CostFlex, Winter'!N16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O16" s="1">
-        <f>'[3]CostFlex, Winter'!O16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P16" s="1">
-        <f>'[3]CostFlex, Winter'!P16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q16" s="1">
-        <f>'[3]CostFlex, Winter'!Q16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R16" s="1">
-        <f>'[3]CostFlex, Winter'!R16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S16" s="1">
-        <f>'[3]CostFlex, Winter'!S16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T16" s="1">
-        <f>'[3]CostFlex, Winter'!T16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U16" s="1">
-        <f>'[3]CostFlex, Winter'!U16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V16" s="1">
-        <f>'[3]CostFlex, Winter'!V16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W16" s="1">
-        <f>'[3]CostFlex, Winter'!W16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X16" s="1">
-        <f>'[3]CostFlex, Winter'!X16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y16" s="1">
-        <f>'[3]CostFlex, Winter'!Y16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -23210,99 +19810,99 @@
         <v>26</v>
       </c>
       <c r="B17" s="1">
-        <f>'[3]CostFlex, Winter'!B17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C17" s="1">
-        <f>'[3]CostFlex, Winter'!C17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D17" s="1">
-        <f>'[3]CostFlex, Winter'!D17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E17" s="1">
-        <f>'[3]CostFlex, Winter'!E17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F17" s="1">
-        <f>'[3]CostFlex, Winter'!F17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G17" s="1">
-        <f>'[3]CostFlex, Winter'!G17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H17" s="1">
-        <f>'[3]CostFlex, Winter'!H17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I17" s="1">
-        <f>'[3]CostFlex, Winter'!I17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J17" s="1">
-        <f>'[3]CostFlex, Winter'!J17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K17" s="1">
-        <f>'[3]CostFlex, Winter'!K17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L17" s="1">
-        <f>'[3]CostFlex, Winter'!L17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M17" s="1">
-        <f>'[3]CostFlex, Winter'!M17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N17" s="1">
-        <f>'[3]CostFlex, Winter'!N17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O17" s="1">
-        <f>'[3]CostFlex, Winter'!O17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P17" s="1">
-        <f>'[3]CostFlex, Winter'!P17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q17" s="1">
-        <f>'[3]CostFlex, Winter'!Q17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R17" s="1">
-        <f>'[3]CostFlex, Winter'!R17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S17" s="1">
-        <f>'[3]CostFlex, Winter'!S17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T17" s="1">
-        <f>'[3]CostFlex, Winter'!T17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U17" s="1">
-        <f>'[3]CostFlex, Winter'!U17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V17" s="1">
-        <f>'[3]CostFlex, Winter'!V17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W17" s="1">
-        <f>'[3]CostFlex, Winter'!W17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X17" s="1">
-        <f>'[3]CostFlex, Winter'!X17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y17" s="1">
-        <f>'[3]CostFlex, Winter'!Y17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -23311,99 +19911,99 @@
         <v>30</v>
       </c>
       <c r="B18" s="1">
-        <f>'[3]CostFlex, Winter'!B18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C18" s="1">
-        <f>'[3]CostFlex, Winter'!C18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D18" s="1">
-        <f>'[3]CostFlex, Winter'!D18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E18" s="1">
-        <f>'[3]CostFlex, Winter'!E18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F18" s="1">
-        <f>'[3]CostFlex, Winter'!F18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G18" s="1">
-        <f>'[3]CostFlex, Winter'!G18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H18" s="1">
-        <f>'[3]CostFlex, Winter'!H18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I18" s="1">
-        <f>'[3]CostFlex, Winter'!I18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J18" s="1">
-        <f>'[3]CostFlex, Winter'!J18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K18" s="1">
-        <f>'[3]CostFlex, Winter'!K18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L18" s="1">
-        <f>'[3]CostFlex, Winter'!L18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M18" s="1">
-        <f>'[3]CostFlex, Winter'!M18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N18" s="1">
-        <f>'[3]CostFlex, Winter'!N18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O18" s="1">
-        <f>'[3]CostFlex, Winter'!O18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P18" s="1">
-        <f>'[3]CostFlex, Winter'!P18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q18" s="1">
-        <f>'[3]CostFlex, Winter'!Q18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R18" s="1">
-        <f>'[3]CostFlex, Winter'!R18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S18" s="1">
-        <f>'[3]CostFlex, Winter'!S18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T18" s="1">
-        <f>'[3]CostFlex, Winter'!T18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U18" s="1">
-        <f>'[3]CostFlex, Winter'!U18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V18" s="1">
-        <f>'[3]CostFlex, Winter'!V18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W18" s="1">
-        <f>'[3]CostFlex, Winter'!W18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X18" s="1">
-        <f>'[3]CostFlex, Winter'!X18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y18" s="1">
-        <f>'[3]CostFlex, Winter'!Y18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -23412,99 +20012,99 @@
         <v>35</v>
       </c>
       <c r="B19" s="1">
-        <f>'[3]CostFlex, Winter'!B19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C19" s="1">
-        <f>'[3]CostFlex, Winter'!C19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D19" s="1">
-        <f>'[3]CostFlex, Winter'!D19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E19" s="1">
-        <f>'[3]CostFlex, Winter'!E19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F19" s="1">
-        <f>'[3]CostFlex, Winter'!F19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G19" s="1">
-        <f>'[3]CostFlex, Winter'!G19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H19" s="1">
-        <f>'[3]CostFlex, Winter'!H19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I19" s="1">
-        <f>'[3]CostFlex, Winter'!I19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J19" s="1">
-        <f>'[3]CostFlex, Winter'!J19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K19" s="1">
-        <f>'[3]CostFlex, Winter'!K19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L19" s="1">
-        <f>'[3]CostFlex, Winter'!L19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M19" s="1">
-        <f>'[3]CostFlex, Winter'!M19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N19" s="1">
-        <f>'[3]CostFlex, Winter'!N19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O19" s="1">
-        <f>'[3]CostFlex, Winter'!O19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P19" s="1">
-        <f>'[3]CostFlex, Winter'!P19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q19" s="1">
-        <f>'[3]CostFlex, Winter'!Q19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R19" s="1">
-        <f>'[3]CostFlex, Winter'!R19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S19" s="1">
-        <f>'[3]CostFlex, Winter'!S19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T19" s="1">
-        <f>'[3]CostFlex, Winter'!T19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U19" s="1">
-        <f>'[3]CostFlex, Winter'!U19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V19" s="1">
-        <f>'[3]CostFlex, Winter'!V19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W19" s="1">
-        <f>'[3]CostFlex, Winter'!W19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X19" s="1">
-        <f>'[3]CostFlex, Winter'!X19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y19" s="1">
-        <f>'[3]CostFlex, Winter'!Y19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -23513,99 +20113,99 @@
         <v>36</v>
       </c>
       <c r="B20" s="1">
-        <f>'[3]CostFlex, Winter'!B20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C20" s="1">
-        <f>'[3]CostFlex, Winter'!C20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D20" s="1">
-        <f>'[3]CostFlex, Winter'!D20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E20" s="1">
-        <f>'[3]CostFlex, Winter'!E20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F20" s="1">
-        <f>'[3]CostFlex, Winter'!F20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G20" s="1">
-        <f>'[3]CostFlex, Winter'!G20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H20" s="1">
-        <f>'[3]CostFlex, Winter'!H20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I20" s="1">
-        <f>'[3]CostFlex, Winter'!I20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J20" s="1">
-        <f>'[3]CostFlex, Winter'!J20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K20" s="1">
-        <f>'[3]CostFlex, Winter'!K20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L20" s="1">
-        <f>'[3]CostFlex, Winter'!L20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M20" s="1">
-        <f>'[3]CostFlex, Winter'!M20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N20" s="1">
-        <f>'[3]CostFlex, Winter'!N20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O20" s="1">
-        <f>'[3]CostFlex, Winter'!O20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P20" s="1">
-        <f>'[3]CostFlex, Winter'!P20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q20" s="1">
-        <f>'[3]CostFlex, Winter'!Q20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R20" s="1">
-        <f>'[3]CostFlex, Winter'!R20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S20" s="1">
-        <f>'[3]CostFlex, Winter'!S20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T20" s="1">
-        <f>'[3]CostFlex, Winter'!T20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U20" s="1">
-        <f>'[3]CostFlex, Winter'!U20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V20" s="1">
-        <f>'[3]CostFlex, Winter'!V20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W20" s="1">
-        <f>'[3]CostFlex, Winter'!W20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X20" s="1">
-        <f>'[3]CostFlex, Winter'!X20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y20" s="1">
-        <f>'[3]CostFlex, Winter'!Y20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -23614,99 +20214,99 @@
         <v>42</v>
       </c>
       <c r="B21" s="1">
-        <f>'[3]CostFlex, Winter'!B21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C21" s="1">
-        <f>'[3]CostFlex, Winter'!C21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D21" s="1">
-        <f>'[3]CostFlex, Winter'!D21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E21" s="1">
-        <f>'[3]CostFlex, Winter'!E21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F21" s="1">
-        <f>'[3]CostFlex, Winter'!F21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G21" s="1">
-        <f>'[3]CostFlex, Winter'!G21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H21" s="1">
-        <f>'[3]CostFlex, Winter'!H21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I21" s="1">
-        <f>'[3]CostFlex, Winter'!I21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J21" s="1">
-        <f>'[3]CostFlex, Winter'!J21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K21" s="1">
-        <f>'[3]CostFlex, Winter'!K21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L21" s="1">
-        <f>'[3]CostFlex, Winter'!L21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M21" s="1">
-        <f>'[3]CostFlex, Winter'!M21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N21" s="1">
-        <f>'[3]CostFlex, Winter'!N21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O21" s="1">
-        <f>'[3]CostFlex, Winter'!O21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P21" s="1">
-        <f>'[3]CostFlex, Winter'!P21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q21" s="1">
-        <f>'[3]CostFlex, Winter'!Q21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R21" s="1">
-        <f>'[3]CostFlex, Winter'!R21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S21" s="1">
-        <f>'[3]CostFlex, Winter'!S21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T21" s="1">
-        <f>'[3]CostFlex, Winter'!T21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U21" s="1">
-        <f>'[3]CostFlex, Winter'!U21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V21" s="1">
-        <f>'[3]CostFlex, Winter'!V21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W21" s="1">
-        <f>'[3]CostFlex, Winter'!W21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X21" s="1">
-        <f>'[3]CostFlex, Winter'!X21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y21" s="1">
-        <f>'[3]CostFlex, Winter'!Y21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -23715,99 +20315,99 @@
         <v>55</v>
       </c>
       <c r="B22" s="1">
-        <f>'[3]CostFlex, Winter'!B22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C22" s="1">
-        <f>'[3]CostFlex, Winter'!C22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D22" s="1">
-        <f>'[3]CostFlex, Winter'!D22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E22" s="1">
-        <f>'[3]CostFlex, Winter'!E22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F22" s="1">
-        <f>'[3]CostFlex, Winter'!F22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G22" s="1">
-        <f>'[3]CostFlex, Winter'!G22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H22" s="1">
-        <f>'[3]CostFlex, Winter'!H22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I22" s="1">
-        <f>'[3]CostFlex, Winter'!I22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J22" s="1">
-        <f>'[3]CostFlex, Winter'!J22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K22" s="1">
-        <f>'[3]CostFlex, Winter'!K22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L22" s="1">
-        <f>'[3]CostFlex, Winter'!L22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M22" s="1">
-        <f>'[3]CostFlex, Winter'!M22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N22" s="1">
-        <f>'[3]CostFlex, Winter'!N22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O22" s="1">
-        <f>'[3]CostFlex, Winter'!O22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P22" s="1">
-        <f>'[3]CostFlex, Winter'!P22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q22" s="1">
-        <f>'[3]CostFlex, Winter'!Q22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R22" s="1">
-        <f>'[3]CostFlex, Winter'!R22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S22" s="1">
-        <f>'[3]CostFlex, Winter'!S22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T22" s="1">
-        <f>'[3]CostFlex, Winter'!T22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U22" s="1">
-        <f>'[3]CostFlex, Winter'!U22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V22" s="1">
-        <f>'[3]CostFlex, Winter'!V22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W22" s="1">
-        <f>'[3]CostFlex, Winter'!W22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X22" s="1">
-        <f>'[3]CostFlex, Winter'!X22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y22" s="1">
-        <f>'[3]CostFlex, Winter'!Y22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -23816,99 +20416,99 @@
         <v>68</v>
       </c>
       <c r="B23" s="1">
-        <f>'[3]CostFlex, Winter'!B23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C23" s="1">
-        <f>'[3]CostFlex, Winter'!C23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D23" s="1">
-        <f>'[3]CostFlex, Winter'!D23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E23" s="1">
-        <f>'[3]CostFlex, Winter'!E23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F23" s="1">
-        <f>'[3]CostFlex, Winter'!F23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G23" s="1">
-        <f>'[3]CostFlex, Winter'!G23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H23" s="1">
-        <f>'[3]CostFlex, Winter'!H23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I23" s="1">
-        <f>'[3]CostFlex, Winter'!I23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J23" s="1">
-        <f>'[3]CostFlex, Winter'!J23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K23" s="1">
-        <f>'[3]CostFlex, Winter'!K23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L23" s="1">
-        <f>'[3]CostFlex, Winter'!L23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M23" s="1">
-        <f>'[3]CostFlex, Winter'!M23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N23" s="1">
-        <f>'[3]CostFlex, Winter'!N23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O23" s="1">
-        <f>'[3]CostFlex, Winter'!O23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P23" s="1">
-        <f>'[3]CostFlex, Winter'!P23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q23" s="1">
-        <f>'[3]CostFlex, Winter'!Q23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R23" s="1">
-        <f>'[3]CostFlex, Winter'!R23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S23" s="1">
-        <f>'[3]CostFlex, Winter'!S23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T23" s="1">
-        <f>'[3]CostFlex, Winter'!T23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U23" s="1">
-        <f>'[3]CostFlex, Winter'!U23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V23" s="1">
-        <f>'[3]CostFlex, Winter'!V23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W23" s="1">
-        <f>'[3]CostFlex, Winter'!W23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X23" s="1">
-        <f>'[3]CostFlex, Winter'!X23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y23" s="1">
-        <f>'[3]CostFlex, Winter'!Y23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -23917,99 +20517,99 @@
         <v>72</v>
       </c>
       <c r="B24" s="1">
-        <f>'[3]CostFlex, Winter'!B24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C24" s="1">
-        <f>'[3]CostFlex, Winter'!C24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D24" s="1">
-        <f>'[3]CostFlex, Winter'!D24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E24" s="1">
-        <f>'[3]CostFlex, Winter'!E24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F24" s="1">
-        <f>'[3]CostFlex, Winter'!F24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G24" s="1">
-        <f>'[3]CostFlex, Winter'!G24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H24" s="1">
-        <f>'[3]CostFlex, Winter'!H24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I24" s="1">
-        <f>'[3]CostFlex, Winter'!I24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J24" s="1">
-        <f>'[3]CostFlex, Winter'!J24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K24" s="1">
-        <f>'[3]CostFlex, Winter'!K24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L24" s="1">
-        <f>'[3]CostFlex, Winter'!L24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M24" s="1">
-        <f>'[3]CostFlex, Winter'!M24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N24" s="1">
-        <f>'[3]CostFlex, Winter'!N24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O24" s="1">
-        <f>'[3]CostFlex, Winter'!O24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P24" s="1">
-        <f>'[3]CostFlex, Winter'!P24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q24" s="1">
-        <f>'[3]CostFlex, Winter'!Q24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R24" s="1">
-        <f>'[3]CostFlex, Winter'!R24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S24" s="1">
-        <f>'[3]CostFlex, Winter'!S24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T24" s="1">
-        <f>'[3]CostFlex, Winter'!T24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U24" s="1">
-        <f>'[3]CostFlex, Winter'!U24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V24" s="1">
-        <f>'[3]CostFlex, Winter'!V24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W24" s="1">
-        <f>'[3]CostFlex, Winter'!W24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X24" s="1">
-        <f>'[3]CostFlex, Winter'!X24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y24" s="1">
-        <f>'[3]CostFlex, Winter'!Y24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -24018,99 +20618,99 @@
         <v>103</v>
       </c>
       <c r="B25" s="1">
-        <f>'[3]CostFlex, Winter'!B25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.246375817666848</v>
       </c>
       <c r="C25" s="1">
-        <f>'[3]CostFlex, Winter'!C25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>19.750923081046427</v>
       </c>
       <c r="D25" s="1">
-        <f>'[3]CostFlex, Winter'!D25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.52451615507286</v>
       </c>
       <c r="E25" s="1">
-        <f>'[3]CostFlex, Winter'!E25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>25.595262215193216</v>
       </c>
       <c r="F25" s="1">
-        <f>'[3]CostFlex, Winter'!F25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>26.28901470234014</v>
       </c>
       <c r="G25" s="1">
-        <f>'[3]CostFlex, Winter'!G25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>21.527349904195361</v>
       </c>
       <c r="H25" s="1">
-        <f>'[3]CostFlex, Winter'!H25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>23.261731122062663</v>
       </c>
       <c r="I25" s="1">
-        <f>'[3]CostFlex, Winter'!I25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>12.992092032024154</v>
       </c>
       <c r="J25" s="1">
-        <f>'[3]CostFlex, Winter'!J25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.8758733381080113</v>
       </c>
       <c r="K25" s="1">
-        <f>'[3]CostFlex, Winter'!K25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.2150719294835639</v>
       </c>
       <c r="L25" s="1">
-        <f>'[3]CostFlex, Winter'!L25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.6684790608223543</v>
       </c>
       <c r="M25" s="1">
-        <f>'[3]CostFlex, Winter'!M25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.4028602786896558</v>
       </c>
       <c r="N25" s="1">
-        <f>'[3]CostFlex, Winter'!N25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="O25" s="1">
-        <f>'[3]CostFlex, Winter'!O25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5093911664549857</v>
       </c>
       <c r="P25" s="1">
-        <f>'[3]CostFlex, Winter'!P25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.625016580979473</v>
       </c>
       <c r="Q25" s="1">
-        <f>'[3]CostFlex, Winter'!Q25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.7196191928631439</v>
       </c>
       <c r="R25" s="1">
-        <f>'[3]CostFlex, Winter'!R25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="S25" s="1">
-        <f>'[3]CostFlex, Winter'!S25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="T25" s="1">
-        <f>'[3]CostFlex, Winter'!T25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8772902126692612</v>
       </c>
       <c r="U25" s="1">
-        <f>'[3]CostFlex, Winter'!U25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>5.6656453116998531</v>
       </c>
       <c r="V25" s="1">
-        <f>'[3]CostFlex, Winter'!V25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="W25" s="1">
-        <f>'[3]CostFlex, Winter'!W25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.1940491268427493</v>
       </c>
       <c r="X25" s="1">
-        <f>'[3]CostFlex, Winter'!X25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2963293909243276</v>
       </c>
       <c r="Y25" s="1">
-        <f>'[3]CostFlex, Winter'!Y25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Winter'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.038388260989537</v>
       </c>
     </row>
@@ -32966,7 +29566,7 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C3" sqref="A1:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40200,7 +36800,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40388,99 +36988,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>'[3]CostFlex, Summer'!B3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C3" s="1">
-        <f>'[3]CostFlex, Summer'!C3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D3" s="1">
-        <f>'[3]CostFlex, Summer'!D3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E3" s="1">
-        <f>'[3]CostFlex, Summer'!E3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F3" s="1">
-        <f>'[3]CostFlex, Summer'!F3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G3" s="1">
-        <f>'[3]CostFlex, Summer'!G3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H3" s="1">
-        <f>'[3]CostFlex, Summer'!H3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I3" s="1">
-        <f>'[3]CostFlex, Summer'!I3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J3" s="1">
-        <f>'[3]CostFlex, Summer'!J3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K3" s="1">
-        <f>'[3]CostFlex, Summer'!K3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L3" s="1">
-        <f>'[3]CostFlex, Summer'!L3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M3" s="1">
-        <f>'[3]CostFlex, Summer'!M3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N3" s="1">
-        <f>'[3]CostFlex, Summer'!N3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O3" s="1">
-        <f>'[3]CostFlex, Summer'!O3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P3" s="1">
-        <f>'[3]CostFlex, Summer'!P3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q3" s="1">
-        <f>'[3]CostFlex, Summer'!Q3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R3" s="1">
-        <f>'[3]CostFlex, Summer'!R3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S3" s="1">
-        <f>'[3]CostFlex, Summer'!S3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T3" s="1">
-        <f>'[3]CostFlex, Summer'!T3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U3" s="1">
-        <f>'[3]CostFlex, Summer'!U3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V3" s="1">
-        <f>'[3]CostFlex, Summer'!V3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W3" s="1">
-        <f>'[3]CostFlex, Summer'!W3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X3" s="1">
-        <f>'[3]CostFlex, Summer'!X3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y3" s="1">
-        <f>'[3]CostFlex, Summer'!Y3*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -40489,99 +37089,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f>'[3]CostFlex, Summer'!B4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C4" s="1">
-        <f>'[3]CostFlex, Summer'!C4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D4" s="1">
-        <f>'[3]CostFlex, Summer'!D4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E4" s="1">
-        <f>'[3]CostFlex, Summer'!E4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F4" s="1">
-        <f>'[3]CostFlex, Summer'!F4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G4" s="1">
-        <f>'[3]CostFlex, Summer'!G4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H4" s="1">
-        <f>'[3]CostFlex, Summer'!H4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I4" s="1">
-        <f>'[3]CostFlex, Summer'!I4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J4" s="1">
-        <f>'[3]CostFlex, Summer'!J4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K4" s="1">
-        <f>'[3]CostFlex, Summer'!K4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L4" s="1">
-        <f>'[3]CostFlex, Summer'!L4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M4" s="1">
-        <f>'[3]CostFlex, Summer'!M4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N4" s="1">
-        <f>'[3]CostFlex, Summer'!N4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O4" s="1">
-        <f>'[3]CostFlex, Summer'!O4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P4" s="1">
-        <f>'[3]CostFlex, Summer'!P4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q4" s="1">
-        <f>'[3]CostFlex, Summer'!Q4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R4" s="1">
-        <f>'[3]CostFlex, Summer'!R4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S4" s="1">
-        <f>'[3]CostFlex, Summer'!S4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T4" s="1">
-        <f>'[3]CostFlex, Summer'!T4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U4" s="1">
-        <f>'[3]CostFlex, Summer'!U4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V4" s="1">
-        <f>'[3]CostFlex, Summer'!V4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W4" s="1">
-        <f>'[3]CostFlex, Summer'!W4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X4" s="1">
-        <f>'[3]CostFlex, Summer'!X4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y4" s="1">
-        <f>'[3]CostFlex, Summer'!Y4*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -40590,99 +37190,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f>'[3]CostFlex, Summer'!B5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C5" s="1">
-        <f>'[3]CostFlex, Summer'!C5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D5" s="1">
-        <f>'[3]CostFlex, Summer'!D5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E5" s="1">
-        <f>'[3]CostFlex, Summer'!E5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F5" s="1">
-        <f>'[3]CostFlex, Summer'!F5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G5" s="1">
-        <f>'[3]CostFlex, Summer'!G5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H5" s="1">
-        <f>'[3]CostFlex, Summer'!H5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I5" s="1">
-        <f>'[3]CostFlex, Summer'!I5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J5" s="1">
-        <f>'[3]CostFlex, Summer'!J5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K5" s="1">
-        <f>'[3]CostFlex, Summer'!K5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L5" s="1">
-        <f>'[3]CostFlex, Summer'!L5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M5" s="1">
-        <f>'[3]CostFlex, Summer'!M5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N5" s="1">
-        <f>'[3]CostFlex, Summer'!N5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O5" s="1">
-        <f>'[3]CostFlex, Summer'!O5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P5" s="1">
-        <f>'[3]CostFlex, Summer'!P5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q5" s="1">
-        <f>'[3]CostFlex, Summer'!Q5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R5" s="1">
-        <f>'[3]CostFlex, Summer'!R5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S5" s="1">
-        <f>'[3]CostFlex, Summer'!S5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T5" s="1">
-        <f>'[3]CostFlex, Summer'!T5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U5" s="1">
-        <f>'[3]CostFlex, Summer'!U5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V5" s="1">
-        <f>'[3]CostFlex, Summer'!V5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W5" s="1">
-        <f>'[3]CostFlex, Summer'!W5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X5" s="1">
-        <f>'[3]CostFlex, Summer'!X5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y5" s="1">
-        <f>'[3]CostFlex, Summer'!Y5*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -40691,99 +37291,99 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f>'[3]CostFlex, Summer'!B6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C6" s="1">
-        <f>'[3]CostFlex, Summer'!C6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D6" s="1">
-        <f>'[3]CostFlex, Summer'!D6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E6" s="1">
-        <f>'[3]CostFlex, Summer'!E6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F6" s="1">
-        <f>'[3]CostFlex, Summer'!F6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G6" s="1">
-        <f>'[3]CostFlex, Summer'!G6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H6" s="1">
-        <f>'[3]CostFlex, Summer'!H6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I6" s="1">
-        <f>'[3]CostFlex, Summer'!I6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J6" s="1">
-        <f>'[3]CostFlex, Summer'!J6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K6" s="1">
-        <f>'[3]CostFlex, Summer'!K6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L6" s="1">
-        <f>'[3]CostFlex, Summer'!L6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M6" s="1">
-        <f>'[3]CostFlex, Summer'!M6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N6" s="1">
-        <f>'[3]CostFlex, Summer'!N6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O6" s="1">
-        <f>'[3]CostFlex, Summer'!O6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P6" s="1">
-        <f>'[3]CostFlex, Summer'!P6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q6" s="1">
-        <f>'[3]CostFlex, Summer'!Q6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R6" s="1">
-        <f>'[3]CostFlex, Summer'!R6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S6" s="1">
-        <f>'[3]CostFlex, Summer'!S6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T6" s="1">
-        <f>'[3]CostFlex, Summer'!T6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U6" s="1">
-        <f>'[3]CostFlex, Summer'!U6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V6" s="1">
-        <f>'[3]CostFlex, Summer'!V6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W6" s="1">
-        <f>'[3]CostFlex, Summer'!W6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X6" s="1">
-        <f>'[3]CostFlex, Summer'!X6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y6" s="1">
-        <f>'[3]CostFlex, Summer'!Y6*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -40792,99 +37392,99 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <f>'[3]CostFlex, Summer'!B7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C7" s="1">
-        <f>'[3]CostFlex, Summer'!C7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D7" s="1">
-        <f>'[3]CostFlex, Summer'!D7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E7" s="1">
-        <f>'[3]CostFlex, Summer'!E7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F7" s="1">
-        <f>'[3]CostFlex, Summer'!F7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G7" s="1">
-        <f>'[3]CostFlex, Summer'!G7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H7" s="1">
-        <f>'[3]CostFlex, Summer'!H7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I7" s="1">
-        <f>'[3]CostFlex, Summer'!I7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J7" s="1">
-        <f>'[3]CostFlex, Summer'!J7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K7" s="1">
-        <f>'[3]CostFlex, Summer'!K7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L7" s="1">
-        <f>'[3]CostFlex, Summer'!L7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M7" s="1">
-        <f>'[3]CostFlex, Summer'!M7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N7" s="1">
-        <f>'[3]CostFlex, Summer'!N7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O7" s="1">
-        <f>'[3]CostFlex, Summer'!O7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P7" s="1">
-        <f>'[3]CostFlex, Summer'!P7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q7" s="1">
-        <f>'[3]CostFlex, Summer'!Q7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R7" s="1">
-        <f>'[3]CostFlex, Summer'!R7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S7" s="1">
-        <f>'[3]CostFlex, Summer'!S7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T7" s="1">
-        <f>'[3]CostFlex, Summer'!T7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U7" s="1">
-        <f>'[3]CostFlex, Summer'!U7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V7" s="1">
-        <f>'[3]CostFlex, Summer'!V7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W7" s="1">
-        <f>'[3]CostFlex, Summer'!W7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X7" s="1">
-        <f>'[3]CostFlex, Summer'!X7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y7" s="1">
-        <f>'[3]CostFlex, Summer'!Y7*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -40893,99 +37493,99 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <f>'[3]CostFlex, Summer'!B8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C8" s="1">
-        <f>'[3]CostFlex, Summer'!C8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D8" s="1">
-        <f>'[3]CostFlex, Summer'!D8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E8" s="1">
-        <f>'[3]CostFlex, Summer'!E8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F8" s="1">
-        <f>'[3]CostFlex, Summer'!F8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G8" s="1">
-        <f>'[3]CostFlex, Summer'!G8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H8" s="1">
-        <f>'[3]CostFlex, Summer'!H8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I8" s="1">
-        <f>'[3]CostFlex, Summer'!I8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J8" s="1">
-        <f>'[3]CostFlex, Summer'!J8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K8" s="1">
-        <f>'[3]CostFlex, Summer'!K8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L8" s="1">
-        <f>'[3]CostFlex, Summer'!L8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M8" s="1">
-        <f>'[3]CostFlex, Summer'!M8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N8" s="1">
-        <f>'[3]CostFlex, Summer'!N8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O8" s="1">
-        <f>'[3]CostFlex, Summer'!O8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P8" s="1">
-        <f>'[3]CostFlex, Summer'!P8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q8" s="1">
-        <f>'[3]CostFlex, Summer'!Q8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R8" s="1">
-        <f>'[3]CostFlex, Summer'!R8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S8" s="1">
-        <f>'[3]CostFlex, Summer'!S8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T8" s="1">
-        <f>'[3]CostFlex, Summer'!T8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U8" s="1">
-        <f>'[3]CostFlex, Summer'!U8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V8" s="1">
-        <f>'[3]CostFlex, Summer'!V8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W8" s="1">
-        <f>'[3]CostFlex, Summer'!W8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X8" s="1">
-        <f>'[3]CostFlex, Summer'!X8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y8" s="1">
-        <f>'[3]CostFlex, Summer'!Y8*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -40994,99 +37594,99 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <f>'[3]CostFlex, Summer'!B9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C9" s="1">
-        <f>'[3]CostFlex, Summer'!C9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D9" s="1">
-        <f>'[3]CostFlex, Summer'!D9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E9" s="1">
-        <f>'[3]CostFlex, Summer'!E9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F9" s="1">
-        <f>'[3]CostFlex, Summer'!F9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G9" s="1">
-        <f>'[3]CostFlex, Summer'!G9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H9" s="1">
-        <f>'[3]CostFlex, Summer'!H9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I9" s="1">
-        <f>'[3]CostFlex, Summer'!I9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J9" s="1">
-        <f>'[3]CostFlex, Summer'!J9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K9" s="1">
-        <f>'[3]CostFlex, Summer'!K9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L9" s="1">
-        <f>'[3]CostFlex, Summer'!L9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M9" s="1">
-        <f>'[3]CostFlex, Summer'!M9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N9" s="1">
-        <f>'[3]CostFlex, Summer'!N9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O9" s="1">
-        <f>'[3]CostFlex, Summer'!O9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P9" s="1">
-        <f>'[3]CostFlex, Summer'!P9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q9" s="1">
-        <f>'[3]CostFlex, Summer'!Q9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R9" s="1">
-        <f>'[3]CostFlex, Summer'!R9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S9" s="1">
-        <f>'[3]CostFlex, Summer'!S9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T9" s="1">
-        <f>'[3]CostFlex, Summer'!T9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U9" s="1">
-        <f>'[3]CostFlex, Summer'!U9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V9" s="1">
-        <f>'[3]CostFlex, Summer'!V9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W9" s="1">
-        <f>'[3]CostFlex, Summer'!W9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X9" s="1">
-        <f>'[3]CostFlex, Summer'!X9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y9" s="1">
-        <f>'[3]CostFlex, Summer'!Y9*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -41095,99 +37695,99 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <f>'[3]CostFlex, Summer'!B10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C10" s="1">
-        <f>'[3]CostFlex, Summer'!C10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D10" s="1">
-        <f>'[3]CostFlex, Summer'!D10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E10" s="1">
-        <f>'[3]CostFlex, Summer'!E10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F10" s="1">
-        <f>'[3]CostFlex, Summer'!F10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G10" s="1">
-        <f>'[3]CostFlex, Summer'!G10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H10" s="1">
-        <f>'[3]CostFlex, Summer'!H10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I10" s="1">
-        <f>'[3]CostFlex, Summer'!I10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J10" s="1">
-        <f>'[3]CostFlex, Summer'!J10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K10" s="1">
-        <f>'[3]CostFlex, Summer'!K10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L10" s="1">
-        <f>'[3]CostFlex, Summer'!L10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M10" s="1">
-        <f>'[3]CostFlex, Summer'!M10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N10" s="1">
-        <f>'[3]CostFlex, Summer'!N10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O10" s="1">
-        <f>'[3]CostFlex, Summer'!O10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P10" s="1">
-        <f>'[3]CostFlex, Summer'!P10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q10" s="1">
-        <f>'[3]CostFlex, Summer'!Q10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R10" s="1">
-        <f>'[3]CostFlex, Summer'!R10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S10" s="1">
-        <f>'[3]CostFlex, Summer'!S10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T10" s="1">
-        <f>'[3]CostFlex, Summer'!T10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U10" s="1">
-        <f>'[3]CostFlex, Summer'!U10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V10" s="1">
-        <f>'[3]CostFlex, Summer'!V10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W10" s="1">
-        <f>'[3]CostFlex, Summer'!W10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X10" s="1">
-        <f>'[3]CostFlex, Summer'!X10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y10" s="1">
-        <f>'[3]CostFlex, Summer'!Y10*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -41196,99 +37796,99 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <f>'[3]CostFlex, Summer'!B11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C11" s="1">
-        <f>'[3]CostFlex, Summer'!C11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D11" s="1">
-        <f>'[3]CostFlex, Summer'!D11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E11" s="1">
-        <f>'[3]CostFlex, Summer'!E11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F11" s="1">
-        <f>'[3]CostFlex, Summer'!F11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G11" s="1">
-        <f>'[3]CostFlex, Summer'!G11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H11" s="1">
-        <f>'[3]CostFlex, Summer'!H11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I11" s="1">
-        <f>'[3]CostFlex, Summer'!I11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J11" s="1">
-        <f>'[3]CostFlex, Summer'!J11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K11" s="1">
-        <f>'[3]CostFlex, Summer'!K11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L11" s="1">
-        <f>'[3]CostFlex, Summer'!L11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M11" s="1">
-        <f>'[3]CostFlex, Summer'!M11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N11" s="1">
-        <f>'[3]CostFlex, Summer'!N11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O11" s="1">
-        <f>'[3]CostFlex, Summer'!O11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P11" s="1">
-        <f>'[3]CostFlex, Summer'!P11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q11" s="1">
-        <f>'[3]CostFlex, Summer'!Q11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R11" s="1">
-        <f>'[3]CostFlex, Summer'!R11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S11" s="1">
-        <f>'[3]CostFlex, Summer'!S11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T11" s="1">
-        <f>'[3]CostFlex, Summer'!T11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U11" s="1">
-        <f>'[3]CostFlex, Summer'!U11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V11" s="1">
-        <f>'[3]CostFlex, Summer'!V11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W11" s="1">
-        <f>'[3]CostFlex, Summer'!W11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X11" s="1">
-        <f>'[3]CostFlex, Summer'!X11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y11" s="1">
-        <f>'[3]CostFlex, Summer'!Y11*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -41297,99 +37897,99 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <f>'[3]CostFlex, Summer'!B12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C12" s="1">
-        <f>'[3]CostFlex, Summer'!C12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D12" s="1">
-        <f>'[3]CostFlex, Summer'!D12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E12" s="1">
-        <f>'[3]CostFlex, Summer'!E12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F12" s="1">
-        <f>'[3]CostFlex, Summer'!F12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G12" s="1">
-        <f>'[3]CostFlex, Summer'!G12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H12" s="1">
-        <f>'[3]CostFlex, Summer'!H12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I12" s="1">
-        <f>'[3]CostFlex, Summer'!I12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J12" s="1">
-        <f>'[3]CostFlex, Summer'!J12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K12" s="1">
-        <f>'[3]CostFlex, Summer'!K12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L12" s="1">
-        <f>'[3]CostFlex, Summer'!L12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M12" s="1">
-        <f>'[3]CostFlex, Summer'!M12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N12" s="1">
-        <f>'[3]CostFlex, Summer'!N12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O12" s="1">
-        <f>'[3]CostFlex, Summer'!O12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P12" s="1">
-        <f>'[3]CostFlex, Summer'!P12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q12" s="1">
-        <f>'[3]CostFlex, Summer'!Q12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R12" s="1">
-        <f>'[3]CostFlex, Summer'!R12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S12" s="1">
-        <f>'[3]CostFlex, Summer'!S12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T12" s="1">
-        <f>'[3]CostFlex, Summer'!T12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U12" s="1">
-        <f>'[3]CostFlex, Summer'!U12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V12" s="1">
-        <f>'[3]CostFlex, Summer'!V12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W12" s="1">
-        <f>'[3]CostFlex, Summer'!W12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X12" s="1">
-        <f>'[3]CostFlex, Summer'!X12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y12" s="1">
-        <f>'[3]CostFlex, Summer'!Y12*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -41398,99 +37998,99 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <f>'[3]CostFlex, Summer'!B13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C13" s="1">
-        <f>'[3]CostFlex, Summer'!C13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D13" s="1">
-        <f>'[3]CostFlex, Summer'!D13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E13" s="1">
-        <f>'[3]CostFlex, Summer'!E13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F13" s="1">
-        <f>'[3]CostFlex, Summer'!F13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G13" s="1">
-        <f>'[3]CostFlex, Summer'!G13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H13" s="1">
-        <f>'[3]CostFlex, Summer'!H13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I13" s="1">
-        <f>'[3]CostFlex, Summer'!I13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J13" s="1">
-        <f>'[3]CostFlex, Summer'!J13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K13" s="1">
-        <f>'[3]CostFlex, Summer'!K13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L13" s="1">
-        <f>'[3]CostFlex, Summer'!L13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M13" s="1">
-        <f>'[3]CostFlex, Summer'!M13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N13" s="1">
-        <f>'[3]CostFlex, Summer'!N13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O13" s="1">
-        <f>'[3]CostFlex, Summer'!O13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P13" s="1">
-        <f>'[3]CostFlex, Summer'!P13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q13" s="1">
-        <f>'[3]CostFlex, Summer'!Q13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R13" s="1">
-        <f>'[3]CostFlex, Summer'!R13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S13" s="1">
-        <f>'[3]CostFlex, Summer'!S13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T13" s="1">
-        <f>'[3]CostFlex, Summer'!T13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U13" s="1">
-        <f>'[3]CostFlex, Summer'!U13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V13" s="1">
-        <f>'[3]CostFlex, Summer'!V13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W13" s="1">
-        <f>'[3]CostFlex, Summer'!W13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X13" s="1">
-        <f>'[3]CostFlex, Summer'!X13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y13" s="1">
-        <f>'[3]CostFlex, Summer'!Y13*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -41499,99 +38099,99 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <f>'[3]CostFlex, Summer'!B14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C14" s="1">
-        <f>'[3]CostFlex, Summer'!C14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D14" s="1">
-        <f>'[3]CostFlex, Summer'!D14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E14" s="1">
-        <f>'[3]CostFlex, Summer'!E14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F14" s="1">
-        <f>'[3]CostFlex, Summer'!F14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G14" s="1">
-        <f>'[3]CostFlex, Summer'!G14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H14" s="1">
-        <f>'[3]CostFlex, Summer'!H14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I14" s="1">
-        <f>'[3]CostFlex, Summer'!I14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J14" s="1">
-        <f>'[3]CostFlex, Summer'!J14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K14" s="1">
-        <f>'[3]CostFlex, Summer'!K14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L14" s="1">
-        <f>'[3]CostFlex, Summer'!L14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M14" s="1">
-        <f>'[3]CostFlex, Summer'!M14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N14" s="1">
-        <f>'[3]CostFlex, Summer'!N14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O14" s="1">
-        <f>'[3]CostFlex, Summer'!O14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P14" s="1">
-        <f>'[3]CostFlex, Summer'!P14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q14" s="1">
-        <f>'[3]CostFlex, Summer'!Q14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R14" s="1">
-        <f>'[3]CostFlex, Summer'!R14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S14" s="1">
-        <f>'[3]CostFlex, Summer'!S14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T14" s="1">
-        <f>'[3]CostFlex, Summer'!T14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U14" s="1">
-        <f>'[3]CostFlex, Summer'!U14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V14" s="1">
-        <f>'[3]CostFlex, Summer'!V14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W14" s="1">
-        <f>'[3]CostFlex, Summer'!W14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X14" s="1">
-        <f>'[3]CostFlex, Summer'!X14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y14" s="1">
-        <f>'[3]CostFlex, Summer'!Y14*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -41600,99 +38200,99 @@
         <v>20</v>
       </c>
       <c r="B15" s="1">
-        <f>'[3]CostFlex, Summer'!B15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C15" s="1">
-        <f>'[3]CostFlex, Summer'!C15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D15" s="1">
-        <f>'[3]CostFlex, Summer'!D15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E15" s="1">
-        <f>'[3]CostFlex, Summer'!E15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F15" s="1">
-        <f>'[3]CostFlex, Summer'!F15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G15" s="1">
-        <f>'[3]CostFlex, Summer'!G15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H15" s="1">
-        <f>'[3]CostFlex, Summer'!H15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I15" s="1">
-        <f>'[3]CostFlex, Summer'!I15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J15" s="1">
-        <f>'[3]CostFlex, Summer'!J15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K15" s="1">
-        <f>'[3]CostFlex, Summer'!K15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L15" s="1">
-        <f>'[3]CostFlex, Summer'!L15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M15" s="1">
-        <f>'[3]CostFlex, Summer'!M15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N15" s="1">
-        <f>'[3]CostFlex, Summer'!N15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O15" s="1">
-        <f>'[3]CostFlex, Summer'!O15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P15" s="1">
-        <f>'[3]CostFlex, Summer'!P15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q15" s="1">
-        <f>'[3]CostFlex, Summer'!Q15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R15" s="1">
-        <f>'[3]CostFlex, Summer'!R15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S15" s="1">
-        <f>'[3]CostFlex, Summer'!S15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T15" s="1">
-        <f>'[3]CostFlex, Summer'!T15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U15" s="1">
-        <f>'[3]CostFlex, Summer'!U15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V15" s="1">
-        <f>'[3]CostFlex, Summer'!V15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W15" s="1">
-        <f>'[3]CostFlex, Summer'!W15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X15" s="1">
-        <f>'[3]CostFlex, Summer'!X15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y15" s="1">
-        <f>'[3]CostFlex, Summer'!Y15*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -41701,99 +38301,99 @@
         <v>21</v>
       </c>
       <c r="B16" s="1">
-        <f>'[3]CostFlex, Summer'!B16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C16" s="1">
-        <f>'[3]CostFlex, Summer'!C16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D16" s="1">
-        <f>'[3]CostFlex, Summer'!D16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E16" s="1">
-        <f>'[3]CostFlex, Summer'!E16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F16" s="1">
-        <f>'[3]CostFlex, Summer'!F16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G16" s="1">
-        <f>'[3]CostFlex, Summer'!G16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H16" s="1">
-        <f>'[3]CostFlex, Summer'!H16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I16" s="1">
-        <f>'[3]CostFlex, Summer'!I16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J16" s="1">
-        <f>'[3]CostFlex, Summer'!J16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K16" s="1">
-        <f>'[3]CostFlex, Summer'!K16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L16" s="1">
-        <f>'[3]CostFlex, Summer'!L16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M16" s="1">
-        <f>'[3]CostFlex, Summer'!M16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N16" s="1">
-        <f>'[3]CostFlex, Summer'!N16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O16" s="1">
-        <f>'[3]CostFlex, Summer'!O16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P16" s="1">
-        <f>'[3]CostFlex, Summer'!P16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q16" s="1">
-        <f>'[3]CostFlex, Summer'!Q16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R16" s="1">
-        <f>'[3]CostFlex, Summer'!R16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S16" s="1">
-        <f>'[3]CostFlex, Summer'!S16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T16" s="1">
-        <f>'[3]CostFlex, Summer'!T16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U16" s="1">
-        <f>'[3]CostFlex, Summer'!U16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V16" s="1">
-        <f>'[3]CostFlex, Summer'!V16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W16" s="1">
-        <f>'[3]CostFlex, Summer'!W16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X16" s="1">
-        <f>'[3]CostFlex, Summer'!X16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y16" s="1">
-        <f>'[3]CostFlex, Summer'!Y16*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -41802,99 +38402,99 @@
         <v>26</v>
       </c>
       <c r="B17" s="1">
-        <f>'[3]CostFlex, Summer'!B17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C17" s="1">
-        <f>'[3]CostFlex, Summer'!C17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D17" s="1">
-        <f>'[3]CostFlex, Summer'!D17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E17" s="1">
-        <f>'[3]CostFlex, Summer'!E17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F17" s="1">
-        <f>'[3]CostFlex, Summer'!F17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G17" s="1">
-        <f>'[3]CostFlex, Summer'!G17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H17" s="1">
-        <f>'[3]CostFlex, Summer'!H17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I17" s="1">
-        <f>'[3]CostFlex, Summer'!I17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J17" s="1">
-        <f>'[3]CostFlex, Summer'!J17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K17" s="1">
-        <f>'[3]CostFlex, Summer'!K17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L17" s="1">
-        <f>'[3]CostFlex, Summer'!L17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M17" s="1">
-        <f>'[3]CostFlex, Summer'!M17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N17" s="1">
-        <f>'[3]CostFlex, Summer'!N17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O17" s="1">
-        <f>'[3]CostFlex, Summer'!O17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P17" s="1">
-        <f>'[3]CostFlex, Summer'!P17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q17" s="1">
-        <f>'[3]CostFlex, Summer'!Q17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R17" s="1">
-        <f>'[3]CostFlex, Summer'!R17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S17" s="1">
-        <f>'[3]CostFlex, Summer'!S17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T17" s="1">
-        <f>'[3]CostFlex, Summer'!T17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U17" s="1">
-        <f>'[3]CostFlex, Summer'!U17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V17" s="1">
-        <f>'[3]CostFlex, Summer'!V17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W17" s="1">
-        <f>'[3]CostFlex, Summer'!W17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X17" s="1">
-        <f>'[3]CostFlex, Summer'!X17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y17" s="1">
-        <f>'[3]CostFlex, Summer'!Y17*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -41903,99 +38503,99 @@
         <v>30</v>
       </c>
       <c r="B18" s="1">
-        <f>'[3]CostFlex, Summer'!B18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C18" s="1">
-        <f>'[3]CostFlex, Summer'!C18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D18" s="1">
-        <f>'[3]CostFlex, Summer'!D18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E18" s="1">
-        <f>'[3]CostFlex, Summer'!E18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F18" s="1">
-        <f>'[3]CostFlex, Summer'!F18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G18" s="1">
-        <f>'[3]CostFlex, Summer'!G18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H18" s="1">
-        <f>'[3]CostFlex, Summer'!H18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I18" s="1">
-        <f>'[3]CostFlex, Summer'!I18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J18" s="1">
-        <f>'[3]CostFlex, Summer'!J18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K18" s="1">
-        <f>'[3]CostFlex, Summer'!K18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L18" s="1">
-        <f>'[3]CostFlex, Summer'!L18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M18" s="1">
-        <f>'[3]CostFlex, Summer'!M18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N18" s="1">
-        <f>'[3]CostFlex, Summer'!N18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O18" s="1">
-        <f>'[3]CostFlex, Summer'!O18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P18" s="1">
-        <f>'[3]CostFlex, Summer'!P18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q18" s="1">
-        <f>'[3]CostFlex, Summer'!Q18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R18" s="1">
-        <f>'[3]CostFlex, Summer'!R18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S18" s="1">
-        <f>'[3]CostFlex, Summer'!S18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T18" s="1">
-        <f>'[3]CostFlex, Summer'!T18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U18" s="1">
-        <f>'[3]CostFlex, Summer'!U18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V18" s="1">
-        <f>'[3]CostFlex, Summer'!V18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W18" s="1">
-        <f>'[3]CostFlex, Summer'!W18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X18" s="1">
-        <f>'[3]CostFlex, Summer'!X18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y18" s="1">
-        <f>'[3]CostFlex, Summer'!Y18*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -42004,99 +38604,99 @@
         <v>35</v>
       </c>
       <c r="B19" s="1">
-        <f>'[3]CostFlex, Summer'!B19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C19" s="1">
-        <f>'[3]CostFlex, Summer'!C19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D19" s="1">
-        <f>'[3]CostFlex, Summer'!D19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E19" s="1">
-        <f>'[3]CostFlex, Summer'!E19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F19" s="1">
-        <f>'[3]CostFlex, Summer'!F19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G19" s="1">
-        <f>'[3]CostFlex, Summer'!G19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H19" s="1">
-        <f>'[3]CostFlex, Summer'!H19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I19" s="1">
-        <f>'[3]CostFlex, Summer'!I19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J19" s="1">
-        <f>'[3]CostFlex, Summer'!J19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K19" s="1">
-        <f>'[3]CostFlex, Summer'!K19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L19" s="1">
-        <f>'[3]CostFlex, Summer'!L19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M19" s="1">
-        <f>'[3]CostFlex, Summer'!M19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N19" s="1">
-        <f>'[3]CostFlex, Summer'!N19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O19" s="1">
-        <f>'[3]CostFlex, Summer'!O19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P19" s="1">
-        <f>'[3]CostFlex, Summer'!P19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q19" s="1">
-        <f>'[3]CostFlex, Summer'!Q19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R19" s="1">
-        <f>'[3]CostFlex, Summer'!R19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S19" s="1">
-        <f>'[3]CostFlex, Summer'!S19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T19" s="1">
-        <f>'[3]CostFlex, Summer'!T19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U19" s="1">
-        <f>'[3]CostFlex, Summer'!U19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V19" s="1">
-        <f>'[3]CostFlex, Summer'!V19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W19" s="1">
-        <f>'[3]CostFlex, Summer'!W19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X19" s="1">
-        <f>'[3]CostFlex, Summer'!X19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y19" s="1">
-        <f>'[3]CostFlex, Summer'!Y19*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -42105,99 +38705,99 @@
         <v>36</v>
       </c>
       <c r="B20" s="1">
-        <f>'[3]CostFlex, Summer'!B20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C20" s="1">
-        <f>'[3]CostFlex, Summer'!C20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D20" s="1">
-        <f>'[3]CostFlex, Summer'!D20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E20" s="1">
-        <f>'[3]CostFlex, Summer'!E20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F20" s="1">
-        <f>'[3]CostFlex, Summer'!F20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G20" s="1">
-        <f>'[3]CostFlex, Summer'!G20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H20" s="1">
-        <f>'[3]CostFlex, Summer'!H20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I20" s="1">
-        <f>'[3]CostFlex, Summer'!I20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J20" s="1">
-        <f>'[3]CostFlex, Summer'!J20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K20" s="1">
-        <f>'[3]CostFlex, Summer'!K20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L20" s="1">
-        <f>'[3]CostFlex, Summer'!L20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M20" s="1">
-        <f>'[3]CostFlex, Summer'!M20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N20" s="1">
-        <f>'[3]CostFlex, Summer'!N20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O20" s="1">
-        <f>'[3]CostFlex, Summer'!O20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P20" s="1">
-        <f>'[3]CostFlex, Summer'!P20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q20" s="1">
-        <f>'[3]CostFlex, Summer'!Q20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R20" s="1">
-        <f>'[3]CostFlex, Summer'!R20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S20" s="1">
-        <f>'[3]CostFlex, Summer'!S20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T20" s="1">
-        <f>'[3]CostFlex, Summer'!T20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U20" s="1">
-        <f>'[3]CostFlex, Summer'!U20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V20" s="1">
-        <f>'[3]CostFlex, Summer'!V20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W20" s="1">
-        <f>'[3]CostFlex, Summer'!W20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X20" s="1">
-        <f>'[3]CostFlex, Summer'!X20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y20" s="1">
-        <f>'[3]CostFlex, Summer'!Y20*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -42206,99 +38806,99 @@
         <v>42</v>
       </c>
       <c r="B21" s="1">
-        <f>'[3]CostFlex, Summer'!B21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C21" s="1">
-        <f>'[3]CostFlex, Summer'!C21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D21" s="1">
-        <f>'[3]CostFlex, Summer'!D21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E21" s="1">
-        <f>'[3]CostFlex, Summer'!E21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F21" s="1">
-        <f>'[3]CostFlex, Summer'!F21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G21" s="1">
-        <f>'[3]CostFlex, Summer'!G21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H21" s="1">
-        <f>'[3]CostFlex, Summer'!H21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I21" s="1">
-        <f>'[3]CostFlex, Summer'!I21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J21" s="1">
-        <f>'[3]CostFlex, Summer'!J21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K21" s="1">
-        <f>'[3]CostFlex, Summer'!K21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L21" s="1">
-        <f>'[3]CostFlex, Summer'!L21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M21" s="1">
-        <f>'[3]CostFlex, Summer'!M21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N21" s="1">
-        <f>'[3]CostFlex, Summer'!N21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O21" s="1">
-        <f>'[3]CostFlex, Summer'!O21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P21" s="1">
-        <f>'[3]CostFlex, Summer'!P21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q21" s="1">
-        <f>'[3]CostFlex, Summer'!Q21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R21" s="1">
-        <f>'[3]CostFlex, Summer'!R21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S21" s="1">
-        <f>'[3]CostFlex, Summer'!S21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T21" s="1">
-        <f>'[3]CostFlex, Summer'!T21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U21" s="1">
-        <f>'[3]CostFlex, Summer'!U21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V21" s="1">
-        <f>'[3]CostFlex, Summer'!V21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W21" s="1">
-        <f>'[3]CostFlex, Summer'!W21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X21" s="1">
-        <f>'[3]CostFlex, Summer'!X21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y21" s="1">
-        <f>'[3]CostFlex, Summer'!Y21*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -42307,99 +38907,99 @@
         <v>55</v>
       </c>
       <c r="B22" s="1">
-        <f>'[3]CostFlex, Summer'!B22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C22" s="1">
-        <f>'[3]CostFlex, Summer'!C22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D22" s="1">
-        <f>'[3]CostFlex, Summer'!D22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E22" s="1">
-        <f>'[3]CostFlex, Summer'!E22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F22" s="1">
-        <f>'[3]CostFlex, Summer'!F22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G22" s="1">
-        <f>'[3]CostFlex, Summer'!G22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H22" s="1">
-        <f>'[3]CostFlex, Summer'!H22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I22" s="1">
-        <f>'[3]CostFlex, Summer'!I22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J22" s="1">
-        <f>'[3]CostFlex, Summer'!J22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K22" s="1">
-        <f>'[3]CostFlex, Summer'!K22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L22" s="1">
-        <f>'[3]CostFlex, Summer'!L22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M22" s="1">
-        <f>'[3]CostFlex, Summer'!M22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N22" s="1">
-        <f>'[3]CostFlex, Summer'!N22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O22" s="1">
-        <f>'[3]CostFlex, Summer'!O22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P22" s="1">
-        <f>'[3]CostFlex, Summer'!P22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q22" s="1">
-        <f>'[3]CostFlex, Summer'!Q22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R22" s="1">
-        <f>'[3]CostFlex, Summer'!R22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S22" s="1">
-        <f>'[3]CostFlex, Summer'!S22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T22" s="1">
-        <f>'[3]CostFlex, Summer'!T22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U22" s="1">
-        <f>'[3]CostFlex, Summer'!U22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V22" s="1">
-        <f>'[3]CostFlex, Summer'!V22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W22" s="1">
-        <f>'[3]CostFlex, Summer'!W22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X22" s="1">
-        <f>'[3]CostFlex, Summer'!X22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y22" s="1">
-        <f>'[3]CostFlex, Summer'!Y22*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -42408,99 +39008,99 @@
         <v>68</v>
       </c>
       <c r="B23" s="1">
-        <f>'[3]CostFlex, Summer'!B23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C23" s="1">
-        <f>'[3]CostFlex, Summer'!C23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D23" s="1">
-        <f>'[3]CostFlex, Summer'!D23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E23" s="1">
-        <f>'[3]CostFlex, Summer'!E23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F23" s="1">
-        <f>'[3]CostFlex, Summer'!F23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G23" s="1">
-        <f>'[3]CostFlex, Summer'!G23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H23" s="1">
-        <f>'[3]CostFlex, Summer'!H23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I23" s="1">
-        <f>'[3]CostFlex, Summer'!I23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J23" s="1">
-        <f>'[3]CostFlex, Summer'!J23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K23" s="1">
-        <f>'[3]CostFlex, Summer'!K23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L23" s="1">
-        <f>'[3]CostFlex, Summer'!L23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M23" s="1">
-        <f>'[3]CostFlex, Summer'!M23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N23" s="1">
-        <f>'[3]CostFlex, Summer'!N23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O23" s="1">
-        <f>'[3]CostFlex, Summer'!O23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P23" s="1">
-        <f>'[3]CostFlex, Summer'!P23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q23" s="1">
-        <f>'[3]CostFlex, Summer'!Q23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R23" s="1">
-        <f>'[3]CostFlex, Summer'!R23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S23" s="1">
-        <f>'[3]CostFlex, Summer'!S23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T23" s="1">
-        <f>'[3]CostFlex, Summer'!T23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U23" s="1">
-        <f>'[3]CostFlex, Summer'!U23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V23" s="1">
-        <f>'[3]CostFlex, Summer'!V23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W23" s="1">
-        <f>'[3]CostFlex, Summer'!W23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X23" s="1">
-        <f>'[3]CostFlex, Summer'!X23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y23" s="1">
-        <f>'[3]CostFlex, Summer'!Y23*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -42509,99 +39109,99 @@
         <v>72</v>
       </c>
       <c r="B24" s="1">
-        <f>'[3]CostFlex, Summer'!B24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C24" s="1">
-        <f>'[3]CostFlex, Summer'!C24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D24" s="1">
-        <f>'[3]CostFlex, Summer'!D24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E24" s="1">
-        <f>'[3]CostFlex, Summer'!E24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F24" s="1">
-        <f>'[3]CostFlex, Summer'!F24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G24" s="1">
-        <f>'[3]CostFlex, Summer'!G24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H24" s="1">
-        <f>'[3]CostFlex, Summer'!H24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I24" s="1">
-        <f>'[3]CostFlex, Summer'!I24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J24" s="1">
-        <f>'[3]CostFlex, Summer'!J24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K24" s="1">
-        <f>'[3]CostFlex, Summer'!K24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L24" s="1">
-        <f>'[3]CostFlex, Summer'!L24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M24" s="1">
-        <f>'[3]CostFlex, Summer'!M24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N24" s="1">
-        <f>'[3]CostFlex, Summer'!N24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O24" s="1">
-        <f>'[3]CostFlex, Summer'!O24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P24" s="1">
-        <f>'[3]CostFlex, Summer'!P24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q24" s="1">
-        <f>'[3]CostFlex, Summer'!Q24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R24" s="1">
-        <f>'[3]CostFlex, Summer'!R24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S24" s="1">
-        <f>'[3]CostFlex, Summer'!S24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T24" s="1">
-        <f>'[3]CostFlex, Summer'!T24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U24" s="1">
-        <f>'[3]CostFlex, Summer'!U24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V24" s="1">
-        <f>'[3]CostFlex, Summer'!V24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W24" s="1">
-        <f>'[3]CostFlex, Summer'!W24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X24" s="1">
-        <f>'[3]CostFlex, Summer'!X24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y24" s="1">
-        <f>'[3]CostFlex, Summer'!Y24*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -42610,99 +39210,99 @@
         <v>103</v>
       </c>
       <c r="B25" s="1">
-        <f>'[3]CostFlex, Summer'!B25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!B$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.853433660905945</v>
       </c>
       <c r="C25" s="1">
-        <f>'[3]CostFlex, Summer'!C25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!C$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>11.100039794350733</v>
       </c>
       <c r="D25" s="1">
-        <f>'[3]CostFlex, Summer'!D25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!D$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.2227495816814713</v>
       </c>
       <c r="E25" s="1">
-        <f>'[3]CostFlex, Summer'!E25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!E$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.464511812050854</v>
       </c>
       <c r="F25" s="1">
-        <f>'[3]CostFlex, Summer'!F25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!F$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>7.1372414965569586</v>
       </c>
       <c r="G25" s="1">
-        <f>'[3]CostFlex, Summer'!G25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!G$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.9900818780712486</v>
       </c>
       <c r="H25" s="1">
-        <f>'[3]CostFlex, Summer'!H25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!H$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="I25" s="1">
-        <f>'[3]CostFlex, Summer'!I25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!I$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.711117945495641</v>
       </c>
       <c r="J25" s="1">
-        <f>'[3]CostFlex, Summer'!J25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!J$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.259127688718102</v>
       </c>
       <c r="K25" s="1">
-        <f>'[3]CostFlex, Summer'!K25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!K$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4616780629283532</v>
       </c>
       <c r="L25" s="1">
-        <f>'[3]CostFlex, Summer'!L25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!L$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.1028735434732351</v>
       </c>
       <c r="M25" s="1">
-        <f>'[3]CostFlex, Summer'!M25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!M$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>10.511401320407892</v>
       </c>
       <c r="N25" s="1">
-        <f>'[3]CostFlex, Summer'!N25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!N$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.1988930299181551</v>
       </c>
       <c r="O25" s="1">
-        <f>'[3]CostFlex, Summer'!O25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!O$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.1176355684773931</v>
       </c>
       <c r="P25" s="1">
-        <f>'[3]CostFlex, Summer'!P25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!P$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>6.8954792661875768</v>
       </c>
       <c r="Q25" s="1">
-        <f>'[3]CostFlex, Summer'!Q25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Q$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.4511666616079442</v>
       </c>
       <c r="R25" s="1">
-        <f>'[3]CostFlex, Summer'!R25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!R$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.0201992074712205</v>
       </c>
       <c r="S25" s="1">
-        <f>'[3]CostFlex, Summer'!S25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!S$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>8.8505999117834442</v>
       </c>
       <c r="T25" s="1">
-        <f>'[3]CostFlex, Summer'!T25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!T$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.8983130153100776</v>
       </c>
       <c r="U25" s="1">
-        <f>'[3]CostFlex, Summer'!U25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!U$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>4.5409253704162094</v>
       </c>
       <c r="V25" s="1">
-        <f>'[3]CostFlex, Summer'!V25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!V$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="W25" s="1">
-        <f>'[3]CostFlex, Summer'!W25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!W$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>2.9537037710346175</v>
       </c>
       <c r="X25" s="1">
-        <f>'[3]CostFlex, Summer'!X25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!X$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>3.5002966396958279</v>
       </c>
       <c r="Y25" s="1">
-        <f>'[3]CostFlex, Summer'!Y25*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
+        <f>'[3]CostFlex, Summer'!Y$2*(1+[4]Main!$B$3)^(Main!$B$7-2020)</f>
         <v>9.4287269844058788</v>
       </c>
     </row>
@@ -42897,8 +39497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60F2DC8-879F-40A5-9C7E-1E09B9B96029}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43228,7 +39828,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43342,7 +39942,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43412,8 +40012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB73191-FCDB-4F8E-B8D5-A53CF31EDDEC}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43483,8 +40083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB54F3B-B8E1-4779-AF11-FD9BA2F2EDA5}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43670,7 +40270,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
